--- a/Other_tools/5_sra数据提交/ngdc/GSA_Template.cn.xlsx
+++ b/Other_tools/5_sra数据提交/ngdc/GSA_Template.cn.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="7rYIFNJSmzmCFy9bLK+3i1yE4udfPVG9uuM8oF1/iR5i2vCPxoH/BY/0fhcuODGcXqDSA7bp/rE2zDlBAHEZ2A==" workbookSaltValue="AtILnAin3BgoAKXA7D+YbA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView windowHeight="10480" activeTab="1"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="7" r:id="rId1"/>
@@ -773,7 +773,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="678">
   <si>
     <r>
       <rPr>
@@ -1525,7 +1525,7 @@
     <t>E1</t>
   </si>
   <si>
-    <t>Calathodes_oxycarpa_2024050902-8</t>
+    <t>rna-Calathodes_oxycarpa_2024050902-8</t>
   </si>
   <si>
     <t>PRJCA050622</t>
@@ -1534,7 +1534,7 @@
     <t>Illumina NovaSeq 6000</t>
   </si>
   <si>
-    <t>missing</t>
+    <t>Genomic DNA was extracted from silica-dried leaves using a Tiangen kit. Libraries were constructed with 1 μg of DNA using the Vazyme (VAHTS Universal) kit and sequenced as 2x150 bp paired-end reads on a DNBSEQ-T7 (BGI) platform. This process yielded approximately 10 Gbp of raw data per sample for plastid genome assembly</t>
   </si>
   <si>
     <t>WGS</t>
@@ -1552,265 +1552,397 @@
     <t>E2</t>
   </si>
   <si>
-    <t>Trollius_altaicus20240618009</t>
+    <t>rna-Trollius_altaicus20240618009</t>
+  </si>
+  <si>
+    <t>Genomic DNA was extracted from silica-dried leaves using a Tiangen kit. Libraries were constructed with 1 μg of DNA using the Vazyme (VAHTS Universal) kit and sequenced as 2x150 bp paired-end reads on a DNBSEQ-T7 (BGI) platform. This process yielded approximately 11 Gbp of raw data per sample for plastid genome assembly</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>Trollius_chinensis2023061310</t>
+    <t>rna-Trollius_chinensis2023061310</t>
+  </si>
+  <si>
+    <t>Genomic DNA was extracted from silica-dried leaves using a Tiangen kit. Libraries were constructed with 1 μg of DNA using the Vazyme (VAHTS Universal) kit and sequenced as 2x150 bp paired-end reads on a DNBSEQ-T7 (BGI) platform. This process yielded approximately 12 Gbp of raw data per sample for plastid genome assembly</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
-    <t>Trollius_lilacinus20240611005</t>
+    <t>rna-Trollius_lilacinus20240611005</t>
+  </si>
+  <si>
+    <t>Genomic DNA was extracted from silica-dried leaves using a Tiangen kit. Libraries were constructed with 1 μg of DNA using the Vazyme (VAHTS Universal) kit and sequenced as 2x150 bp paired-end reads on a DNBSEQ-T7 (BGI) platform. This process yielded approximately 13 Gbp of raw data per sample for plastid genome assembly</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>Trollius_pumilus2023080915</t>
+    <t>rna-Trollius_pumilus2023080915</t>
+  </si>
+  <si>
+    <t>Genomic DNA was extracted from silica-dried leaves using a Tiangen kit. Libraries were constructed with 1 μg of DNA using the Vazyme (VAHTS Universal) kit and sequenced as 2x150 bp paired-end reads on a DNBSEQ-T7 (BGI) platform. This process yielded approximately 14 Gbp of raw data per sample for plastid genome assembly</t>
   </si>
   <si>
     <t>E6</t>
   </si>
   <si>
-    <t>Trollius_ranunculoides2024060502</t>
+    <t>rna-Trollius_ranunculoides2024060502</t>
+  </si>
+  <si>
+    <t>Genomic DNA was extracted from silica-dried leaves using a Tiangen kit. Libraries were constructed with 1 μg of DNA using the Vazyme (VAHTS Universal) kit and sequenced as 2x150 bp paired-end reads on a DNBSEQ-T7 (BGI) platform. This process yielded approximately 15 Gbp of raw data per sample for plastid genome assembly</t>
   </si>
   <si>
     <t>E7</t>
   </si>
   <si>
-    <t>Trollius_yunnanensis2023081015-1</t>
+    <t>rna-Trollius_yunnanensis2023081015-1</t>
+  </si>
+  <si>
+    <t>Genomic DNA was extracted from silica-dried leaves using a Tiangen kit. Libraries were constructed with 1 μg of DNA using the Vazyme (VAHTS Universal) kit and sequenced as 2x150 bp paired-end reads on a DNBSEQ-T7 (BGI) platform. This process yielded approximately 16 Gbp of raw data per sample for plastid genome assembly</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>Adonis_aestivalis_var_parviflora_I-4422</t>
+    <t>rna-Adonis_aestivalis_var_parviflora_I-4422</t>
+  </si>
+  <si>
+    <t>Genomic DNA was extracted from silica-dried leaves using a Tiangen kit. Libraries were constructed with 1 μg of DNA using the Vazyme (VAHTS Universal) kit and sequenced as 2x150 bp paired-end reads on a DNBSEQ-T7 (BGI) platform. This process yielded approximately 17 Gbp of raw data per sample for plastid genome assembly</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>Adonis_amurensis_ChengnanPark2025031401</t>
+    <t>rna-Adonis_amurensis_ChengnanPark2025031401</t>
+  </si>
+  <si>
+    <t>Genomic DNA was extracted from silica-dried leaves using a Tiangen kit. Libraries were constructed with 1 μg of DNA using the Vazyme (VAHTS Universal) kit and sequenced as 2x150 bp paired-end reads on a DNBSEQ-T7 (BGI) platform. This process yielded approximately 18 Gbp of raw data per sample for plastid genome assembly</t>
   </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>Adonis_amurensis_Japan_WHJP01</t>
+    <t>rna-Adonis_amurensis_Japan_WHJP01</t>
+  </si>
+  <si>
+    <t>Genomic DNA was extracted from silica-dried leaves using a Tiangen kit. Libraries were constructed with 1 μg of DNA using the Vazyme (VAHTS Universal) kit and sequenced as 2x150 bp paired-end reads on a DNBSEQ-T7 (BGI) platform. This process yielded approximately 19 Gbp of raw data per sample for plastid genome assembly</t>
   </si>
   <si>
     <t>E11</t>
   </si>
   <si>
-    <t>Adonis_amurensis_Tonghua_1_2024050405-1</t>
+    <t>rna-Adonis_amurensis_Tonghua_1_2024050405-1</t>
+  </si>
+  <si>
+    <t>Genomic DNA was extracted from silica-dried leaves using a Tiangen kit. Libraries were constructed with 1 μg of DNA using the Vazyme (VAHTS Universal) kit and sequenced as 2x150 bp paired-end reads on a DNBSEQ-T7 (BGI) platform. This process yielded approximately 20 Gbp of raw data per sample for plastid genome assembly</t>
   </si>
   <si>
     <t>E12</t>
   </si>
   <si>
-    <t>Adonis_amurensis_Tonghua_2024050305-1</t>
+    <t>rna-Adonis_amurensis_Tonghua_2024050305-1</t>
+  </si>
+  <si>
+    <t>Genomic DNA was extracted from silica-dried leaves using a Tiangen kit. Libraries were constructed with 1 μg of DNA using the Vazyme (VAHTS Universal) kit and sequenced as 2x150 bp paired-end reads on a DNBSEQ-T7 (BGI) platform. This process yielded approximately 21 Gbp of raw data per sample for plastid genome assembly</t>
   </si>
   <si>
     <t>E13</t>
   </si>
   <si>
-    <t>Adonis_amurensis_Tonghua_3_2024050405-3</t>
+    <t>rna-Adonis_amurensis_Tonghua_3_2024050405-3</t>
+  </si>
+  <si>
+    <t>Genomic DNA was extracted from silica-dried leaves using a Tiangen kit. Libraries were constructed with 1 μg of DNA using the Vazyme (VAHTS Universal) kit and sequenced as 2x150 bp paired-end reads on a DNBSEQ-T7 (BGI) platform. This process yielded approximately 22 Gbp of raw data per sample for plastid genome assembly</t>
   </si>
   <si>
     <t>E14</t>
   </si>
   <si>
-    <t>Adonis_bobroviana_1_2024060601-1</t>
+    <t>rna-Adonis_bobroviana_1_2024060601-1</t>
+  </si>
+  <si>
+    <t>Genomic DNA was extracted from silica-dried leaves using a Tiangen kit. Libraries were constructed with 1 μg of DNA using the Vazyme (VAHTS Universal) kit and sequenced as 2x150 bp paired-end reads on a DNBSEQ-T7 (BGI) platform. This process yielded approximately 23 Gbp of raw data per sample for plastid genome assembly</t>
   </si>
   <si>
     <t>E15</t>
   </si>
   <si>
-    <t>Adonis_bobroviana_2_2024060601-2</t>
+    <t>rna-Adonis_bobroviana_2_2024060601-2</t>
+  </si>
+  <si>
+    <t>Genomic DNA was extracted from silica-dried leaves using a Tiangen kit. Libraries were constructed with 1 μg of DNA using the Vazyme (VAHTS Universal) kit and sequenced as 2x150 bp paired-end reads on a DNBSEQ-T7 (BGI) platform. This process yielded approximately 24 Gbp of raw data per sample for plastid genome assembly</t>
   </si>
   <si>
     <t>E16</t>
   </si>
   <si>
-    <t>Adonis_bobroviana_3_2024060601-3</t>
+    <t>rna-Adonis_bobroviana_3_2024060601-3</t>
+  </si>
+  <si>
+    <t>Genomic DNA was extracted from silica-dried leaves using a Tiangen kit. Libraries were constructed with 1 μg of DNA using the Vazyme (VAHTS Universal) kit and sequenced as 2x150 bp paired-end reads on a DNBSEQ-T7 (BGI) platform. This process yielded approximately 25 Gbp of raw data per sample for plastid genome assembly</t>
   </si>
   <si>
     <t>E17</t>
   </si>
   <si>
-    <t>Adonis_coerulea_1_2024060508-1</t>
+    <t>rna-Adonis_coerulea_1_2024060508-1</t>
+  </si>
+  <si>
+    <t>Genomic DNA was extracted from silica-dried leaves using a Tiangen kit. Libraries were constructed with 1 μg of DNA using the Vazyme (VAHTS Universal) kit and sequenced as 2x150 bp paired-end reads on a DNBSEQ-T7 (BGI) platform. This process yielded approximately 26 Gbp of raw data per sample for plastid genome assembly</t>
   </si>
   <si>
     <t>E18</t>
   </si>
   <si>
-    <t>Adonis_coerulea_2_2024060508-2</t>
+    <t>rna-Adonis_coerulea_2_2024060508-2</t>
+  </si>
+  <si>
+    <t>Genomic DNA was extracted from silica-dried leaves using a Tiangen kit. Libraries were constructed with 1 μg of DNA using the Vazyme (VAHTS Universal) kit and sequenced as 2x150 bp paired-end reads on a DNBSEQ-T7 (BGI) platform. This process yielded approximately 27 Gbp of raw data per sample for plastid genome assembly</t>
   </si>
   <si>
     <t>E19</t>
   </si>
   <si>
-    <t>Adonis_coerulea_3_2024060508-3</t>
+    <t>rna-Adonis_coerulea_3_2024060508-3</t>
+  </si>
+  <si>
+    <t>Genomic DNA was extracted from silica-dried leaves using a Tiangen kit. Libraries were constructed with 1 μg of DNA using the Vazyme (VAHTS Universal) kit and sequenced as 2x150 bp paired-end reads on a DNBSEQ-T7 (BGI) platform. This process yielded approximately 28 Gbp of raw data per sample for plastid genome assembly</t>
   </si>
   <si>
     <t>E20</t>
   </si>
   <si>
-    <t>Adonis_davidii_2025050306-12</t>
+    <t>rna-Adonis_davidii_2025050306-12</t>
+  </si>
+  <si>
+    <t>Genomic DNA was extracted from silica-dried leaves using a Tiangen kit. Libraries were constructed with 1 μg of DNA using the Vazyme (VAHTS Universal) kit and sequenced as 2x150 bp paired-end reads on a DNBSEQ-T7 (BGI) platform. This process yielded approximately 29 Gbp of raw data per sample for plastid genome assembly</t>
   </si>
   <si>
     <t>E21</t>
   </si>
   <si>
-    <t>Adonis_davidii_2025050306-1</t>
+    <t>rna-Adonis_davidii_2025050306-1</t>
+  </si>
+  <si>
+    <t>Genomic DNA was extracted from silica-dried leaves using a Tiangen kit. Libraries were constructed with 1 μg of DNA using the Vazyme (VAHTS Universal) kit and sequenced as 2x150 bp paired-end reads on a DNBSEQ-T7 (BGI) platform. This process yielded approximately 30 Gbp of raw data per sample for plastid genome assembly</t>
   </si>
   <si>
     <t>E22</t>
   </si>
   <si>
-    <t>Adonis_davidii_2025050306-9</t>
+    <t>rna-Adonis_davidii_2025050306-9</t>
+  </si>
+  <si>
+    <t>Genomic DNA was extracted from silica-dried leaves using a Tiangen kit. Libraries were constructed with 1 μg of DNA using the Vazyme (VAHTS Universal) kit and sequenced as 2x150 bp paired-end reads on a DNBSEQ-T7 (BGI) platform. This process yielded approximately 31 Gbp of raw data per sample for plastid genome assembly</t>
   </si>
   <si>
     <t>E23</t>
   </si>
   <si>
-    <t>Adonis_fupingensis2_2023051702</t>
+    <t>rna-Adonis_fupingensis2_2023051702</t>
+  </si>
+  <si>
+    <t>Genomic DNA was extracted from silica-dried leaves using a Tiangen kit. Libraries were constructed with 1 μg of DNA using the Vazyme (VAHTS Universal) kit and sequenced as 2x150 bp paired-end reads on a DNBSEQ-T7 (BGI) platform. This process yielded approximately 32 Gbp of raw data per sample for plastid genome assembly</t>
   </si>
   <si>
     <t>E24</t>
   </si>
   <si>
-    <t>Adonis_fupingensis4_2023051704</t>
+    <t>rna-Adonis_fupingensis4_2023051704</t>
+  </si>
+  <si>
+    <t>Genomic DNA was extracted from silica-dried leaves using a Tiangen kit. Libraries were constructed with 1 μg of DNA using the Vazyme (VAHTS Universal) kit and sequenced as 2x150 bp paired-end reads on a DNBSEQ-T7 (BGI) platform. This process yielded approximately 33 Gbp of raw data per sample for plastid genome assembly</t>
   </si>
   <si>
     <t>E25</t>
   </si>
   <si>
-    <t>Adonis_fupingensis5_2023051705</t>
+    <t>rna-Adonis_fupingensis5_2023051705</t>
+  </si>
+  <si>
+    <t>Genomic DNA was extracted from silica-dried leaves using a Tiangen kit. Libraries were constructed with 1 μg of DNA using the Vazyme (VAHTS Universal) kit and sequenced as 2x150 bp paired-end reads on a DNBSEQ-T7 (BGI) platform. This process yielded approximately 34 Gbp of raw data per sample for plastid genome assembly</t>
   </si>
   <si>
     <t>E26</t>
   </si>
   <si>
-    <t>Adonis_ramosa_chashikou2024030801</t>
+    <t>rna-Adonis_ramosa_chashikou2024030801</t>
+  </si>
+  <si>
+    <t>Genomic DNA was extracted from silica-dried leaves using a Tiangen kit. Libraries were constructed with 1 μg of DNA using the Vazyme (VAHTS Universal) kit and sequenced as 2x150 bp paired-end reads on a DNBSEQ-T7 (BGI) platform. This process yielded approximately 35 Gbp of raw data per sample for plastid genome assembly</t>
   </si>
   <si>
     <t>E27</t>
   </si>
   <si>
-    <t>Adonis_ramosa_Henan-4_2025031201-4</t>
+    <t>rna-Adonis_ramosa_Henan-4_2025031201-4</t>
+  </si>
+  <si>
+    <t>Genomic DNA was extracted from silica-dried leaves using a Tiangen kit. Libraries were constructed with 1 μg of DNA using the Vazyme (VAHTS Universal) kit and sequenced as 2x150 bp paired-end reads on a DNBSEQ-T7 (BGI) platform. This process yielded approximately 36 Gbp of raw data per sample for plastid genome assembly</t>
   </si>
   <si>
     <t>E28</t>
   </si>
   <si>
-    <t>Adonis_ramosa_Henan_17_2025031201-17</t>
+    <t>rna-Adonis_ramosa_Henan_17_2025031201-17</t>
+  </si>
+  <si>
+    <t>Genomic DNA was extracted from silica-dried leaves using a Tiangen kit. Libraries were constructed with 1 μg of DNA using the Vazyme (VAHTS Universal) kit and sequenced as 2x150 bp paired-end reads on a DNBSEQ-T7 (BGI) platform. This process yielded approximately 37 Gbp of raw data per sample for plastid genome assembly</t>
   </si>
   <si>
     <t>E29</t>
   </si>
   <si>
-    <t>Adonis_ramosa_Henan_5_2025031201-5</t>
+    <t>rna-Adonis_ramosa_Henan_5_2025031201-5</t>
+  </si>
+  <si>
+    <t>Genomic DNA was extracted from silica-dried leaves using a Tiangen kit. Libraries were constructed with 1 μg of DNA using the Vazyme (VAHTS Universal) kit and sequenced as 2x150 bp paired-end reads on a DNBSEQ-T7 (BGI) platform. This process yielded approximately 38 Gbp of raw data per sample for plastid genome assembly</t>
   </si>
   <si>
     <t>E30</t>
   </si>
   <si>
-    <t>Adonis_ramosa_Huairou_Fenghuangtuo_2025032802-3</t>
+    <t>rna-Adonis_ramosa_Huairou_Fenghuangtuo_2025032802-3</t>
+  </si>
+  <si>
+    <t>Genomic DNA was extracted from silica-dried leaves using a Tiangen kit. Libraries were constructed with 1 μg of DNA using the Vazyme (VAHTS Universal) kit and sequenced as 2x150 bp paired-end reads on a DNBSEQ-T7 (BGI) platform. This process yielded approximately 39 Gbp of raw data per sample for plastid genome assembly</t>
   </si>
   <si>
     <t>E31</t>
   </si>
   <si>
-    <t>Adonis_ramosa_Jiangsu_01_2025032301-1</t>
+    <t>rna-Adonis_ramosa_Jiangsu_01_2025032301-1</t>
+  </si>
+  <si>
+    <t>Genomic DNA was extracted from silica-dried leaves using a Tiangen kit. Libraries were constructed with 1 μg of DNA using the Vazyme (VAHTS Universal) kit and sequenced as 2x150 bp paired-end reads on a DNBSEQ-T7 (BGI) platform. This process yielded approximately 40 Gbp of raw data per sample for plastid genome assembly</t>
   </si>
   <si>
     <t>E32</t>
   </si>
   <si>
-    <t>Adonis_ramosa_Jiangsu_03_2025032303-1</t>
+    <t>rna-Adonis_ramosa_Jiangsu_03_2025032303-1</t>
+  </si>
+  <si>
+    <t>Genomic DNA was extracted from silica-dried leaves using a Tiangen kit. Libraries were constructed with 1 μg of DNA using the Vazyme (VAHTS Universal) kit and sequenced as 2x150 bp paired-end reads on a DNBSEQ-T7 (BGI) platform. This process yielded approximately 41 Gbp of raw data per sample for plastid genome assembly</t>
   </si>
   <si>
     <t>E33</t>
   </si>
   <si>
-    <t>Adonis_ramosa_Shandong-9_2025041001-9</t>
+    <t>rna-Adonis_ramosa_Shandong-9_2025041001-9</t>
+  </si>
+  <si>
+    <t>Genomic DNA was extracted from silica-dried leaves using a Tiangen kit. Libraries were constructed with 1 μg of DNA using the Vazyme (VAHTS Universal) kit and sequenced as 2x150 bp paired-end reads on a DNBSEQ-T7 (BGI) platform. This process yielded approximately 42 Gbp of raw data per sample for plastid genome assembly</t>
   </si>
   <si>
     <t>E34</t>
   </si>
   <si>
-    <t>Adonis_ramosa_Shandong_1_2025041001-1</t>
+    <t>rna-Adonis_ramosa_Shandong_1_2025041001-1</t>
+  </si>
+  <si>
+    <t>Genomic DNA was extracted from silica-dried leaves using a Tiangen kit. Libraries were constructed with 1 μg of DNA using the Vazyme (VAHTS Universal) kit and sequenced as 2x150 bp paired-end reads on a DNBSEQ-T7 (BGI) platform. This process yielded approximately 43 Gbp of raw data per sample for plastid genome assembly</t>
   </si>
   <si>
     <t>E35</t>
   </si>
   <si>
-    <t>Adonis_ramosa_Shandong_5_2025041001-5</t>
+    <t>rna-Adonis_ramosa_Shandong_5_2025041001-5</t>
+  </si>
+  <si>
+    <t>Genomic DNA was extracted from silica-dried leaves using a Tiangen kit. Libraries were constructed with 1 μg of DNA using the Vazyme (VAHTS Universal) kit and sequenced as 2x150 bp paired-end reads on a DNBSEQ-T7 (BGI) platform. This process yielded approximately 44 Gbp of raw data per sample for plastid genome assembly</t>
   </si>
   <si>
     <t>E36</t>
   </si>
   <si>
-    <t>Adonis_ramosa_Tonghua_1_2024050304-1</t>
+    <t>rna-Adonis_ramosa_Tonghua_1_2024050304-1</t>
+  </si>
+  <si>
+    <t>Genomic DNA was extracted from silica-dried leaves using a Tiangen kit. Libraries were constructed with 1 μg of DNA using the Vazyme (VAHTS Universal) kit and sequenced as 2x150 bp paired-end reads on a DNBSEQ-T7 (BGI) platform. This process yielded approximately 45 Gbp of raw data per sample for plastid genome assembly</t>
   </si>
   <si>
     <t>E37</t>
   </si>
   <si>
-    <t>Adonis_ramosa_Tonghua_2024050304-2</t>
+    <t>rna-Adonis_ramosa_Tonghua_2024050304-2</t>
+  </si>
+  <si>
+    <t>Genomic DNA was extracted from silica-dried leaves using a Tiangen kit. Libraries were constructed with 1 μg of DNA using the Vazyme (VAHTS Universal) kit and sequenced as 2x150 bp paired-end reads on a DNBSEQ-T7 (BGI) platform. This process yielded approximately 46 Gbp of raw data per sample for plastid genome assembly</t>
   </si>
   <si>
     <t>E38</t>
   </si>
   <si>
-    <t>Adonis_ramosa_Tonghua_5_2024050304-5</t>
+    <t>rna-Adonis_ramosa_Tonghua_5_2024050304-5</t>
+  </si>
+  <si>
+    <t>Genomic DNA was extracted from silica-dried leaves using a Tiangen kit. Libraries were constructed with 1 μg of DNA using the Vazyme (VAHTS Universal) kit and sequenced as 2x150 bp paired-end reads on a DNBSEQ-T7 (BGI) platform. This process yielded approximately 47 Gbp of raw data per sample for plastid genome assembly</t>
   </si>
   <si>
     <t>E39</t>
   </si>
   <si>
-    <t>Adonis_sibirica_20250527001</t>
+    <t>rna-Adonis_sibirica_20250527001</t>
+  </si>
+  <si>
+    <t>Genomic DNA was extracted from silica-dried leaves using a Tiangen kit. Libraries were constructed with 1 μg of DNA using the Vazyme (VAHTS Universal) kit and sequenced as 2x150 bp paired-end reads on a DNBSEQ-T7 (BGI) platform. This process yielded approximately 48 Gbp of raw data per sample for plastid genome assembly</t>
   </si>
   <si>
     <t>E40</t>
   </si>
   <si>
-    <t>Adonis_sibirica_4786_I-4786</t>
+    <t>rna-Adonis_sibirica_4786_I-4786</t>
+  </si>
+  <si>
+    <t>Genomic DNA was extracted from silica-dried leaves using a Tiangen kit. Libraries were constructed with 1 μg of DNA using the Vazyme (VAHTS Universal) kit and sequenced as 2x150 bp paired-end reads on a DNBSEQ-T7 (BGI) platform. This process yielded approximately 49 Gbp of raw data per sample for plastid genome assembly</t>
   </si>
   <si>
     <t>E41</t>
   </si>
   <si>
-    <t>Adonis_sibirica_I-4749_I-4749</t>
+    <t>rna-Adonis_sibirica_I-4749_I-4749</t>
+  </si>
+  <si>
+    <t>Genomic DNA was extracted from silica-dried leaves using a Tiangen kit. Libraries were constructed with 1 μg of DNA using the Vazyme (VAHTS Universal) kit and sequenced as 2x150 bp paired-end reads on a DNBSEQ-T7 (BGI) platform. This process yielded approximately 50 Gbp of raw data per sample for plastid genome assembly</t>
   </si>
   <si>
     <t>E42</t>
   </si>
   <si>
-    <t>Adonis_sutchuenensis_1_WH25032502</t>
+    <t>rna-Adonis_sutchuenensis_1_WH25032502</t>
+  </si>
+  <si>
+    <t>Genomic DNA was extracted from silica-dried leaves using a Tiangen kit. Libraries were constructed with 1 μg of DNA using the Vazyme (VAHTS Universal) kit and sequenced as 2x150 bp paired-end reads on a DNBSEQ-T7 (BGI) platform. This process yielded approximately 51 Gbp of raw data per sample for plastid genome assembly</t>
   </si>
   <si>
     <t>E43</t>
   </si>
   <si>
-    <t>Adonis_sutchuenensis_2_WH25032502-2</t>
+    <t>rna-Adonis_sutchuenensis_2_WH25032502-2</t>
+  </si>
+  <si>
+    <t>Genomic DNA was extracted from silica-dried leaves using a Tiangen kit. Libraries were constructed with 1 μg of DNA using the Vazyme (VAHTS Universal) kit and sequenced as 2x150 bp paired-end reads on a DNBSEQ-T7 (BGI) platform. This process yielded approximately 52 Gbp of raw data per sample for plastid genome assembly</t>
   </si>
   <si>
     <t>E44</t>
   </si>
   <si>
-    <t>Adonis_villosa_4247_I-4247</t>
+    <t>rna-Adonis_villosa_4247_I-4247</t>
+  </si>
+  <si>
+    <t>Genomic DNA was extracted from silica-dried leaves using a Tiangen kit. Libraries were constructed with 1 μg of DNA using the Vazyme (VAHTS Universal) kit and sequenced as 2x150 bp paired-end reads on a DNBSEQ-T7 (BGI) platform. This process yielded approximately 53 Gbp of raw data per sample for plastid genome assembly</t>
   </si>
   <si>
     <t>E45</t>
   </si>
   <si>
-    <t>Adonis_villosa_lll20240520011</t>
+    <t>rna-Adonis_villosa_lll20240520011</t>
+  </si>
+  <si>
+    <t>Genomic DNA was extracted from silica-dried leaves using a Tiangen kit. Libraries were constructed with 1 μg of DNA using the Vazyme (VAHTS Universal) kit and sequenced as 2x150 bp paired-end reads on a DNBSEQ-T7 (BGI) platform. This process yielded approximately 54 Gbp of raw data per sample for plastid genome assembly</t>
   </si>
   <si>
     <r>
@@ -2343,6 +2475,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>*</t>
     </r>
     <r>
@@ -6244,13 +6383,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="62">
+  <fonts count="61">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6386,13 +6525,6 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -6546,17 +6678,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
+      <name val="Adobe 黑体 Std R"/>
       <charset val="134"/>
     </font>
     <font>
@@ -6567,12 +6696,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Adobe 黑体 Std R"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
@@ -6586,6 +6709,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Adobe 黑体 Std R"/>
       <charset val="134"/>
     </font>
@@ -6616,14 +6754,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -6633,8 +6771,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
@@ -6650,19 +6793,8 @@
       <name val="等线"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="44">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6737,12 +6869,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -6809,12 +6935,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -6864,12 +6984,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7204,67 +7318,70 @@
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7279,22 +7396,25 @@
     <xf numFmtId="0" fontId="40" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7303,10 +7423,10 @@
     <xf numFmtId="0" fontId="40" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7315,46 +7435,40 @@
     <xf numFmtId="0" fontId="40" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
@@ -7473,7 +7587,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7485,7 +7599,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7494,10 +7608,10 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7608,7 +7722,7 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7617,6 +7731,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -7633,9 +7750,6 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7710,7 +7824,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7801,17 +7914,7 @@
     <cellStyle name="常规 2" xfId="49"/>
     <cellStyle name="超链接 2" xfId="50"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -8127,16 +8230,17 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView zoomScalePageLayoutView="122" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B55"/>
+    <sheetView tabSelected="1" zoomScalePageLayoutView="122" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="5" style="93" customWidth="1"/>
-    <col min="2" max="2" width="22.3727272727273" style="93" customWidth="1"/>
+    <col min="2" max="2" width="53.3636363636364" style="93" customWidth="1"/>
     <col min="3" max="3" width="25.6272727272727" style="93" customWidth="1"/>
-    <col min="4" max="5" width="24.6272727272727" style="93" customWidth="1"/>
+    <col min="4" max="4" width="53.3636363636364" style="93" customWidth="1"/>
+    <col min="5" max="5" width="24.6272727272727" style="93" customWidth="1"/>
     <col min="6" max="6" width="20.1272727272727" style="112" customWidth="1"/>
     <col min="7" max="7" width="48.3727272727273" style="93" customWidth="1"/>
     <col min="8" max="8" width="15.7545454545455" style="93" customWidth="1"/>
@@ -8184,8 +8288,8 @@
         <v>2</v>
       </c>
       <c r="H2" s="73"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="96"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="97"/>
       <c r="K2" s="115"/>
       <c r="L2" s="115"/>
       <c r="R2" s="107"/>
@@ -8204,8 +8308,8 @@
         <v>4</v>
       </c>
       <c r="H3" s="77"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="98"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="99"/>
       <c r="K3" s="115"/>
       <c r="L3" s="115"/>
       <c r="R3" s="107"/>
@@ -8226,7 +8330,7 @@
         <v>6</v>
       </c>
       <c r="H4" s="81"/>
-      <c r="I4" s="128"/>
+      <c r="I4" s="127"/>
       <c r="J4" s="100"/>
       <c r="K4" s="115"/>
       <c r="L4" s="115"/>
@@ -8291,7 +8395,7 @@
       <c r="U7" s="108"/>
     </row>
     <row r="8" s="109" customFormat="1" spans="1:21">
-      <c r="A8" s="122"/>
+      <c r="A8" s="95"/>
       <c r="B8" s="115"/>
       <c r="C8" s="119"/>
       <c r="D8" s="119"/>
@@ -8303,70 +8407,70 @@
       <c r="J8" s="115"/>
       <c r="K8" s="115"/>
       <c r="L8" s="115"/>
-      <c r="R8" s="132"/>
-      <c r="S8" s="132"/>
-      <c r="T8" s="133"/>
-      <c r="U8" s="133"/>
+      <c r="R8" s="131"/>
+      <c r="S8" s="131"/>
+      <c r="T8" s="132"/>
+      <c r="U8" s="132"/>
     </row>
     <row r="9" s="110" customFormat="1" spans="1:21">
       <c r="A9" s="63">
         <v>1</v>
       </c>
-      <c r="B9" s="123">
+      <c r="B9" s="122">
         <v>2</v>
       </c>
       <c r="C9" s="63">
         <v>3</v>
       </c>
-      <c r="D9" s="123">
+      <c r="D9" s="122">
         <v>4</v>
       </c>
       <c r="E9" s="63">
         <v>5</v>
       </c>
-      <c r="F9" s="123">
+      <c r="F9" s="122">
         <v>6</v>
       </c>
       <c r="G9" s="63">
         <v>7</v>
       </c>
-      <c r="H9" s="123">
+      <c r="H9" s="122">
         <v>8</v>
       </c>
       <c r="I9" s="63">
         <v>9</v>
       </c>
-      <c r="J9" s="123">
+      <c r="J9" s="122">
         <v>10</v>
       </c>
       <c r="K9" s="63">
         <v>11</v>
       </c>
-      <c r="L9" s="123">
+      <c r="L9" s="122">
         <v>12</v>
       </c>
       <c r="M9" s="63">
         <v>13</v>
       </c>
-      <c r="N9" s="123">
+      <c r="N9" s="122">
         <v>14</v>
       </c>
       <c r="O9" s="63">
         <v>15</v>
       </c>
-      <c r="P9" s="123">
+      <c r="P9" s="122">
         <v>16</v>
       </c>
       <c r="Q9" s="63">
         <v>17</v>
       </c>
-      <c r="R9" s="123">
+      <c r="R9" s="122">
         <v>18</v>
       </c>
       <c r="S9" s="63">
         <v>19</v>
       </c>
-      <c r="T9" s="123">
+      <c r="T9" s="122">
         <v>20</v>
       </c>
       <c r="U9" s="63">
@@ -8386,7 +8490,7 @@
       <c r="D10" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="124" t="s">
+      <c r="E10" s="123" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="86" t="s">
@@ -8395,7 +8499,7 @@
       <c r="G10" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="124" t="s">
+      <c r="H10" s="123" t="s">
         <v>16</v>
       </c>
       <c r="I10" s="88" t="s">
@@ -8410,22 +8514,22 @@
       <c r="L10" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="129" t="s">
+      <c r="M10" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="130" t="s">
+      <c r="N10" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="O10" s="131" t="s">
+      <c r="O10" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="P10" s="124" t="s">
+      <c r="P10" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="Q10" s="124" t="s">
+      <c r="Q10" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="R10" s="124" t="s">
+      <c r="R10" s="123" t="s">
         <v>26</v>
       </c>
       <c r="S10" s="105" t="s">
@@ -8451,7 +8555,7 @@
       <c r="D11" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="125"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="112" t="s">
         <v>33</v>
       </c>
@@ -8481,8 +8585,8 @@
       <c r="P11" s="62"/>
       <c r="Q11" s="62"/>
       <c r="R11" s="107"/>
-      <c r="T11" s="134"/>
-      <c r="U11" s="134"/>
+      <c r="T11" s="133"/>
+      <c r="U11" s="133"/>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="93" t="s">
@@ -8491,18 +8595,18 @@
       <c r="B12" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="94" t="s">
+      <c r="C12" s="95" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="125"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="112" t="s">
         <v>33</v>
       </c>
       <c r="G12" s="62" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H12" s="62"/>
       <c r="I12" s="112" t="s">
@@ -8527,28 +8631,28 @@
       <c r="P12" s="62"/>
       <c r="Q12" s="62"/>
       <c r="R12" s="107"/>
-      <c r="T12" s="134"/>
-      <c r="U12" s="134"/>
+      <c r="T12" s="133"/>
+      <c r="U12" s="133"/>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="93" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" s="91" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="91" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="125"/>
+        <v>43</v>
+      </c>
+      <c r="E13" s="124"/>
       <c r="F13" s="112" t="s">
         <v>33</v>
       </c>
       <c r="G13" s="62" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H13" s="62"/>
       <c r="I13" s="112" t="s">
@@ -8573,28 +8677,28 @@
       <c r="P13" s="62"/>
       <c r="Q13" s="62"/>
       <c r="R13" s="107"/>
-      <c r="T13" s="134"/>
-      <c r="U13" s="134"/>
+      <c r="T13" s="133"/>
+      <c r="U13" s="133"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="93" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B14" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="94" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="95" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="125"/>
+        <v>46</v>
+      </c>
+      <c r="E14" s="124"/>
       <c r="F14" s="112" t="s">
         <v>33</v>
       </c>
       <c r="G14" s="62" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H14" s="62"/>
       <c r="I14" s="112" t="s">
@@ -8619,28 +8723,28 @@
       <c r="P14" s="62"/>
       <c r="Q14" s="62"/>
       <c r="R14" s="107"/>
-      <c r="T14" s="134"/>
-      <c r="U14" s="134"/>
+      <c r="T14" s="133"/>
+      <c r="U14" s="133"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="93" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B15" s="91" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C15" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="91" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="125"/>
+        <v>49</v>
+      </c>
+      <c r="E15" s="124"/>
       <c r="F15" s="112" t="s">
         <v>33</v>
       </c>
       <c r="G15" s="62" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H15" s="62"/>
       <c r="I15" s="112" t="s">
@@ -8665,28 +8769,28 @@
       <c r="P15" s="62"/>
       <c r="Q15" s="62"/>
       <c r="R15" s="107"/>
-      <c r="T15" s="134"/>
-      <c r="U15" s="134"/>
+      <c r="T15" s="133"/>
+      <c r="U15" s="133"/>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="93" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B16" s="91" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="94" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="95" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="91" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="125"/>
+        <v>52</v>
+      </c>
+      <c r="E16" s="124"/>
       <c r="F16" s="112" t="s">
         <v>33</v>
       </c>
       <c r="G16" s="62" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="H16" s="62"/>
       <c r="I16" s="112" t="s">
@@ -8711,28 +8815,28 @@
       <c r="P16" s="62"/>
       <c r="Q16" s="62"/>
       <c r="R16" s="107"/>
-      <c r="T16" s="134"/>
-      <c r="U16" s="134"/>
+      <c r="T16" s="133"/>
+      <c r="U16" s="133"/>
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="93" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B17" s="91" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C17" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="91" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="125"/>
+        <v>55</v>
+      </c>
+      <c r="E17" s="124"/>
       <c r="F17" s="112" t="s">
         <v>33</v>
       </c>
       <c r="G17" s="62" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="H17" s="62"/>
       <c r="I17" s="112" t="s">
@@ -8757,28 +8861,28 @@
       <c r="P17" s="62"/>
       <c r="Q17" s="62"/>
       <c r="R17" s="107"/>
-      <c r="T17" s="134"/>
-      <c r="U17" s="134"/>
+      <c r="T17" s="133"/>
+      <c r="U17" s="133"/>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="93" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B18" s="91" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="95" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="91" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="125"/>
+        <v>58</v>
+      </c>
+      <c r="E18" s="124"/>
       <c r="F18" s="112" t="s">
         <v>33</v>
       </c>
       <c r="G18" s="62" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="H18" s="62"/>
       <c r="I18" s="112" t="s">
@@ -8803,28 +8907,28 @@
       <c r="P18" s="62"/>
       <c r="Q18" s="62"/>
       <c r="R18" s="107"/>
-      <c r="T18" s="134"/>
-      <c r="U18" s="134"/>
+      <c r="T18" s="133"/>
+      <c r="U18" s="133"/>
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="93" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B19" s="91" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C19" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="91" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="125"/>
+        <v>61</v>
+      </c>
+      <c r="E19" s="124"/>
       <c r="F19" s="112" t="s">
         <v>33</v>
       </c>
       <c r="G19" s="62" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="H19" s="62"/>
       <c r="I19" s="112" t="s">
@@ -8849,28 +8953,28 @@
       <c r="P19" s="62"/>
       <c r="Q19" s="62"/>
       <c r="R19" s="107"/>
-      <c r="T19" s="134"/>
-      <c r="U19" s="134"/>
+      <c r="T19" s="133"/>
+      <c r="U19" s="133"/>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="93" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B20" s="91" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="95" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="91" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="125"/>
+        <v>64</v>
+      </c>
+      <c r="E20" s="124"/>
       <c r="F20" s="112" t="s">
         <v>33</v>
       </c>
       <c r="G20" s="62" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="H20" s="62"/>
       <c r="I20" s="112" t="s">
@@ -8895,28 +8999,28 @@
       <c r="P20" s="62"/>
       <c r="Q20" s="62"/>
       <c r="R20" s="107"/>
-      <c r="T20" s="134"/>
-      <c r="U20" s="134"/>
+      <c r="T20" s="133"/>
+      <c r="U20" s="133"/>
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="93" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B21" s="91" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C21" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="125"/>
+        <v>67</v>
+      </c>
+      <c r="E21" s="124"/>
       <c r="F21" s="112" t="s">
         <v>33</v>
       </c>
       <c r="G21" s="62" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="H21" s="62"/>
       <c r="I21" s="112" t="s">
@@ -8941,28 +9045,28 @@
       <c r="P21" s="62"/>
       <c r="Q21" s="62"/>
       <c r="R21" s="107"/>
-      <c r="T21" s="134"/>
-      <c r="U21" s="134"/>
+      <c r="T21" s="133"/>
+      <c r="U21" s="133"/>
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="93" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B22" s="91" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="94" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="95" t="s">
         <v>32</v>
       </c>
       <c r="D22" s="91" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="125"/>
+        <v>70</v>
+      </c>
+      <c r="E22" s="124"/>
       <c r="F22" s="112" t="s">
         <v>33</v>
       </c>
       <c r="G22" s="62" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="H22" s="62"/>
       <c r="I22" s="112" t="s">
@@ -8987,28 +9091,28 @@
       <c r="P22" s="62"/>
       <c r="Q22" s="62"/>
       <c r="R22" s="107"/>
-      <c r="T22" s="134"/>
-      <c r="U22" s="134"/>
+      <c r="T22" s="133"/>
+      <c r="U22" s="133"/>
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="93" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B23" s="91" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C23" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="91" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="125"/>
+        <v>73</v>
+      </c>
+      <c r="E23" s="124"/>
       <c r="F23" s="112" t="s">
         <v>33</v>
       </c>
       <c r="G23" s="62" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="H23" s="62"/>
       <c r="I23" s="112" t="s">
@@ -9033,28 +9137,28 @@
       <c r="P23" s="62"/>
       <c r="Q23" s="62"/>
       <c r="R23" s="107"/>
-      <c r="T23" s="134"/>
-      <c r="U23" s="134"/>
+      <c r="T23" s="133"/>
+      <c r="U23" s="133"/>
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="93" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B24" s="91" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="94" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="95" t="s">
         <v>32</v>
       </c>
       <c r="D24" s="91" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="125"/>
+        <v>76</v>
+      </c>
+      <c r="E24" s="124"/>
       <c r="F24" s="112" t="s">
         <v>33</v>
       </c>
       <c r="G24" s="62" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="H24" s="62"/>
       <c r="I24" s="112" t="s">
@@ -9079,28 +9183,28 @@
       <c r="P24" s="62"/>
       <c r="Q24" s="62"/>
       <c r="R24" s="107"/>
-      <c r="T24" s="134"/>
-      <c r="U24" s="134"/>
+      <c r="T24" s="133"/>
+      <c r="U24" s="133"/>
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="93" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B25" s="91" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C25" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="91" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="125"/>
+        <v>79</v>
+      </c>
+      <c r="E25" s="124"/>
       <c r="F25" s="112" t="s">
         <v>33</v>
       </c>
       <c r="G25" s="62" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="H25" s="62"/>
       <c r="I25" s="112" t="s">
@@ -9125,28 +9229,28 @@
       <c r="P25" s="62"/>
       <c r="Q25" s="62"/>
       <c r="R25" s="107"/>
-      <c r="T25" s="134"/>
-      <c r="U25" s="134"/>
+      <c r="T25" s="133"/>
+      <c r="U25" s="133"/>
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="93" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="B26" s="91" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="95" t="s">
         <v>32</v>
       </c>
       <c r="D26" s="91" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="125"/>
+        <v>82</v>
+      </c>
+      <c r="E26" s="124"/>
       <c r="F26" s="112" t="s">
         <v>33</v>
       </c>
       <c r="G26" s="62" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="H26" s="62"/>
       <c r="I26" s="112" t="s">
@@ -9171,28 +9275,28 @@
       <c r="P26" s="62"/>
       <c r="Q26" s="62"/>
       <c r="R26" s="107"/>
-      <c r="T26" s="134"/>
-      <c r="U26" s="134"/>
+      <c r="T26" s="133"/>
+      <c r="U26" s="133"/>
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="93" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B27" s="91" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C27" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D27" s="91" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="125"/>
+        <v>85</v>
+      </c>
+      <c r="E27" s="124"/>
       <c r="F27" s="112" t="s">
         <v>33</v>
       </c>
       <c r="G27" s="62" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="H27" s="62"/>
       <c r="I27" s="112" t="s">
@@ -9217,28 +9321,28 @@
       <c r="P27" s="62"/>
       <c r="Q27" s="62"/>
       <c r="R27" s="107"/>
-      <c r="T27" s="134"/>
-      <c r="U27" s="134"/>
+      <c r="T27" s="133"/>
+      <c r="U27" s="133"/>
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="93" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="B28" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="94" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="95" t="s">
         <v>32</v>
       </c>
       <c r="D28" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="125"/>
+        <v>88</v>
+      </c>
+      <c r="E28" s="124"/>
       <c r="F28" s="112" t="s">
         <v>33</v>
       </c>
       <c r="G28" s="62" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="H28" s="62"/>
       <c r="I28" s="112" t="s">
@@ -9263,28 +9367,28 @@
       <c r="P28" s="62"/>
       <c r="Q28" s="62"/>
       <c r="R28" s="107"/>
-      <c r="T28" s="134"/>
-      <c r="U28" s="134"/>
+      <c r="T28" s="133"/>
+      <c r="U28" s="133"/>
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="93" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B29" s="91" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C29" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D29" s="91" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29" s="125"/>
+        <v>91</v>
+      </c>
+      <c r="E29" s="124"/>
       <c r="F29" s="112" t="s">
         <v>33</v>
       </c>
       <c r="G29" s="62" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="H29" s="62"/>
       <c r="I29" s="112" t="s">
@@ -9309,28 +9413,28 @@
       <c r="P29" s="62"/>
       <c r="Q29" s="62"/>
       <c r="R29" s="107"/>
-      <c r="T29" s="134"/>
-      <c r="U29" s="134"/>
+      <c r="T29" s="133"/>
+      <c r="U29" s="133"/>
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="93" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B30" s="91" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="94" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="95" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="91" t="s">
-        <v>76</v>
-      </c>
-      <c r="E30" s="125"/>
+        <v>94</v>
+      </c>
+      <c r="E30" s="124"/>
       <c r="F30" s="112" t="s">
         <v>33</v>
       </c>
       <c r="G30" s="62" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="H30" s="62"/>
       <c r="I30" s="112" t="s">
@@ -9355,28 +9459,28 @@
       <c r="P30" s="62"/>
       <c r="Q30" s="62"/>
       <c r="R30" s="107"/>
-      <c r="T30" s="134"/>
-      <c r="U30" s="134"/>
+      <c r="T30" s="133"/>
+      <c r="U30" s="133"/>
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="93" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="B31" s="91" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C31" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D31" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" s="125"/>
+        <v>97</v>
+      </c>
+      <c r="E31" s="124"/>
       <c r="F31" s="112" t="s">
         <v>33</v>
       </c>
       <c r="G31" s="62" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="H31" s="62"/>
       <c r="I31" s="112" t="s">
@@ -9401,28 +9505,28 @@
       <c r="P31" s="62"/>
       <c r="Q31" s="62"/>
       <c r="R31" s="107"/>
-      <c r="T31" s="134"/>
-      <c r="U31" s="134"/>
+      <c r="T31" s="133"/>
+      <c r="U31" s="133"/>
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="93" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B32" s="91" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="95" t="s">
         <v>32</v>
       </c>
       <c r="D32" s="91" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="125"/>
+        <v>100</v>
+      </c>
+      <c r="E32" s="124"/>
       <c r="F32" s="112" t="s">
         <v>33</v>
       </c>
       <c r="G32" s="62" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="H32" s="62"/>
       <c r="I32" s="112" t="s">
@@ -9447,27 +9551,27 @@
       <c r="P32" s="62"/>
       <c r="Q32" s="62"/>
       <c r="R32" s="107"/>
-      <c r="T32" s="134"/>
-      <c r="U32" s="134"/>
+      <c r="T32" s="133"/>
+      <c r="U32" s="133"/>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="93" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="B33" s="91" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="C33" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D33" s="91" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="F33" s="112" t="s">
         <v>33</v>
       </c>
       <c r="G33" s="62" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="I33" s="112" t="s">
         <v>35</v>
@@ -9490,22 +9594,22 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="93" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="B34" s="91" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" s="94" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="95" t="s">
         <v>32</v>
       </c>
       <c r="D34" s="91" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="F34" s="112" t="s">
         <v>33</v>
       </c>
       <c r="G34" s="62" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="I34" s="112" t="s">
         <v>35</v>
@@ -9528,22 +9632,22 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="93" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="B35" s="91" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="C35" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D35" s="91" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="F35" s="112" t="s">
         <v>33</v>
       </c>
       <c r="G35" s="62" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="I35" s="112" t="s">
         <v>35</v>
@@ -9566,22 +9670,22 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="93" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B36" s="91" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="94" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="95" t="s">
         <v>32</v>
       </c>
       <c r="D36" s="91" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="F36" s="112" t="s">
         <v>33</v>
       </c>
       <c r="G36" s="62" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="I36" s="112" t="s">
         <v>35</v>
@@ -9604,22 +9708,22 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="93" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="B37" s="91" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="C37" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D37" s="91" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="F37" s="112" t="s">
         <v>33</v>
       </c>
       <c r="G37" s="62" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="I37" s="112" t="s">
         <v>35</v>
@@ -9642,22 +9746,22 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="93" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="B38" s="91" t="s">
-        <v>92</v>
-      </c>
-      <c r="C38" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" s="95" t="s">
         <v>32</v>
       </c>
       <c r="D38" s="91" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="F38" s="112" t="s">
         <v>33</v>
       </c>
       <c r="G38" s="62" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="I38" s="112" t="s">
         <v>35</v>
@@ -9680,22 +9784,22 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="93" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B39" s="91" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="C39" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D39" s="91" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="F39" s="112" t="s">
         <v>33</v>
       </c>
       <c r="G39" s="62" t="s">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="I39" s="112" t="s">
         <v>35</v>
@@ -9718,22 +9822,22 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="93" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="B40" s="91" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" s="94" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="95" t="s">
         <v>32</v>
       </c>
       <c r="D40" s="91" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="F40" s="112" t="s">
         <v>33</v>
       </c>
       <c r="G40" s="62" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="I40" s="112" t="s">
         <v>35</v>
@@ -9756,22 +9860,22 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="93" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="B41" s="91" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="C41" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D41" s="91" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="F41" s="112" t="s">
         <v>33</v>
       </c>
       <c r="G41" s="62" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="I41" s="112" t="s">
         <v>35</v>
@@ -9794,22 +9898,22 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="93" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="B42" s="91" t="s">
-        <v>100</v>
-      </c>
-      <c r="C42" s="94" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="95" t="s">
         <v>32</v>
       </c>
       <c r="D42" s="91" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F42" s="112" t="s">
         <v>33</v>
       </c>
       <c r="G42" s="62" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="I42" s="112" t="s">
         <v>35</v>
@@ -9832,22 +9936,22 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="93" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="B43" s="91" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="C43" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D43" s="91" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="F43" s="112" t="s">
         <v>33</v>
       </c>
       <c r="G43" s="62" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="I43" s="112" t="s">
         <v>35</v>
@@ -9870,22 +9974,22 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="93" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="B44" s="91" t="s">
-        <v>104</v>
-      </c>
-      <c r="C44" s="94" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="95" t="s">
         <v>32</v>
       </c>
       <c r="D44" s="91" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="F44" s="112" t="s">
         <v>33</v>
       </c>
       <c r="G44" s="62" t="s">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="I44" s="112" t="s">
         <v>35</v>
@@ -9908,22 +10012,22 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="93" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="B45" s="91" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="C45" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D45" s="91" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="F45" s="112" t="s">
         <v>33</v>
       </c>
       <c r="G45" s="62" t="s">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="I45" s="112" t="s">
         <v>35</v>
@@ -9946,22 +10050,22 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="93" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="B46" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="C46" s="94" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" s="95" t="s">
         <v>32</v>
       </c>
       <c r="D46" s="91" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="F46" s="112" t="s">
         <v>33</v>
       </c>
       <c r="G46" s="62" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="I46" s="112" t="s">
         <v>35</v>
@@ -9984,22 +10088,22 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="93" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="B47" s="91" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="C47" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D47" s="91" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="F47" s="112" t="s">
         <v>33</v>
       </c>
       <c r="G47" s="62" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="I47" s="112" t="s">
         <v>35</v>
@@ -10022,22 +10126,22 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="93" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="B48" s="91" t="s">
-        <v>112</v>
-      </c>
-      <c r="C48" s="94" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" s="95" t="s">
         <v>32</v>
       </c>
       <c r="D48" s="91" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="F48" s="112" t="s">
         <v>33</v>
       </c>
       <c r="G48" s="62" t="s">
-        <v>34</v>
+        <v>149</v>
       </c>
       <c r="I48" s="112" t="s">
         <v>35</v>
@@ -10060,22 +10164,22 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="93" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="B49" s="91" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="C49" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D49" s="91" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="F49" s="112" t="s">
         <v>33</v>
       </c>
       <c r="G49" s="62" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="I49" s="112" t="s">
         <v>35</v>
@@ -10098,22 +10202,22 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="93" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="B50" s="91" t="s">
-        <v>116</v>
-      </c>
-      <c r="C50" s="94" t="s">
+        <v>154</v>
+      </c>
+      <c r="C50" s="95" t="s">
         <v>32</v>
       </c>
       <c r="D50" s="91" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="F50" s="112" t="s">
         <v>33</v>
       </c>
       <c r="G50" s="62" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="I50" s="112" t="s">
         <v>35</v>
@@ -10136,22 +10240,22 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="93" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="B51" s="91" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="C51" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D51" s="91" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="F51" s="112" t="s">
         <v>33</v>
       </c>
       <c r="G51" s="62" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="I51" s="112" t="s">
         <v>35</v>
@@ -10174,22 +10278,22 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="93" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="B52" s="91" t="s">
-        <v>120</v>
-      </c>
-      <c r="C52" s="94" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" s="95" t="s">
         <v>32</v>
       </c>
       <c r="D52" s="91" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="F52" s="112" t="s">
         <v>33</v>
       </c>
       <c r="G52" s="62" t="s">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="I52" s="112" t="s">
         <v>35</v>
@@ -10212,22 +10316,22 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="93" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="B53" s="91" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="C53" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D53" s="91" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="F53" s="112" t="s">
         <v>33</v>
       </c>
       <c r="G53" s="62" t="s">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c r="I53" s="112" t="s">
         <v>35</v>
@@ -10250,22 +10354,22 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="93" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="B54" s="91" t="s">
-        <v>124</v>
-      </c>
-      <c r="C54" s="94" t="s">
+        <v>166</v>
+      </c>
+      <c r="C54" s="95" t="s">
         <v>32</v>
       </c>
       <c r="D54" s="91" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="F54" s="112" t="s">
         <v>33</v>
       </c>
       <c r="G54" s="62" t="s">
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="I54" s="112" t="s">
         <v>35</v>
@@ -10288,22 +10392,22 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="93" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="B55" s="91" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="C55" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D55" s="91" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="F55" s="112" t="s">
         <v>33</v>
       </c>
       <c r="G55" s="62" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="I55" s="112" t="s">
         <v>35</v>
@@ -10335,23 +10439,23 @@
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J10 J11:J55 J56:J1048576">
-      <formula1>ok!$C$2:$C$10</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F55 F56:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F1048576">
       <formula1>ok!$A$2:$A$80</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11:I55 I56:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11:I1048576">
       <formula1>ok!$B$2:$B$43</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J10:J1048576">
+      <formula1>ok!$C$2:$C$10</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11:K55">
       <formula1>ok!$D$2:$D$29</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K56:K1048576 L56:L1048576">
-      <formula1>#REF!</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L11:L55">
       <formula1>ok!$E$2:$E$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K56:L1048576">
+      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10366,8 +10470,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:X55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScalePageLayoutView="165" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11:I55"/>
+    <sheetView zoomScalePageLayoutView="165" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.3727272727273" defaultRowHeight="14"/>
@@ -10393,10 +10497,10 @@
   <sheetData>
     <row r="1" s="60" customFormat="1" ht="14.75" spans="1:16">
       <c r="A1" s="68" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="E1" s="69"/>
-      <c r="P1" s="95"/>
+      <c r="P1" s="96"/>
     </row>
     <row r="2" s="60" customFormat="1" spans="1:16">
       <c r="A2" s="70" t="s">
@@ -10411,11 +10515,11 @@
         <v>2</v>
       </c>
       <c r="H2" s="73"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="P2" s="95"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="P2" s="96"/>
     </row>
     <row r="3" s="60" customFormat="1" ht="14.65" customHeight="1" spans="1:16">
       <c r="A3" s="74" t="s">
@@ -10430,15 +10534,15 @@
         <v>4</v>
       </c>
       <c r="H3" s="77"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="P3" s="95"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="P3" s="96"/>
     </row>
     <row r="4" s="60" customFormat="1" ht="14.65" customHeight="1" spans="1:16">
       <c r="A4" s="78" t="s">
-        <v>128</v>
+        <v>172</v>
       </c>
       <c r="B4" s="79"/>
       <c r="C4" s="79"/>
@@ -10453,11 +10557,11 @@
       <c r="J4" s="101"/>
       <c r="K4" s="101"/>
       <c r="L4" s="101"/>
-      <c r="P4" s="95"/>
+      <c r="P4" s="96"/>
     </row>
     <row r="5" s="61" customFormat="1" spans="1:12">
       <c r="A5" s="82" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="B5" s="83"/>
       <c r="C5" s="83"/>
@@ -10495,7 +10599,7 @@
       <c r="X6" s="108"/>
     </row>
     <row r="7" s="60" customFormat="1" ht="14.65" customHeight="1" spans="16:16">
-      <c r="P7" s="95"/>
+      <c r="P7" s="96"/>
     </row>
     <row r="8" s="61" customFormat="1"/>
     <row r="9" s="63" customFormat="1" spans="1:16">
@@ -10553,40 +10657,40 @@
         <v>9</v>
       </c>
       <c r="B10" s="87" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="C10" s="86" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="86" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="E10" s="86" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="F10" s="88" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="G10" s="89" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="H10" s="90" t="s">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="I10" s="90" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="J10" s="103" t="s">
-        <v>137</v>
+        <v>181</v>
       </c>
       <c r="K10" s="104" t="s">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="L10" s="104" t="s">
-        <v>139</v>
+        <v>183</v>
       </c>
       <c r="M10" s="104" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="N10" s="105" t="s">
         <v>27</v>
@@ -10600,7 +10704,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="64" t="s">
-        <v>141</v>
+        <v>185</v>
       </c>
       <c r="B11" s="91" t="s">
         <v>31</v>
@@ -10612,19 +10716,19 @@
         <v>30</v>
       </c>
       <c r="E11" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="F11" s="91" t="s">
-        <v>143</v>
-      </c>
-      <c r="G11" s="91" t="s">
-        <v>144</v>
-      </c>
-      <c r="H11" s="91" t="s">
-        <v>145</v>
-      </c>
-      <c r="I11" s="91" t="s">
-        <v>146</v>
+        <v>186</v>
+      </c>
+      <c r="F11" s="94" t="s">
+        <v>187</v>
+      </c>
+      <c r="G11" s="94" t="s">
+        <v>188</v>
+      </c>
+      <c r="H11" s="94" t="s">
+        <v>189</v>
+      </c>
+      <c r="I11" s="94" t="s">
+        <v>190</v>
       </c>
       <c r="J11" s="60"/>
       <c r="K11" s="106"/>
@@ -10633,31 +10737,31 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="64" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="B12" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="94" t="s">
+      <c r="C12" s="95" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="93" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="F12" s="91" t="s">
-        <v>148</v>
-      </c>
-      <c r="G12" s="91" t="s">
-        <v>149</v>
-      </c>
-      <c r="H12" s="91" t="s">
-        <v>150</v>
-      </c>
-      <c r="I12" s="91" t="s">
-        <v>151</v>
+        <v>186</v>
+      </c>
+      <c r="F12" s="94" t="s">
+        <v>192</v>
+      </c>
+      <c r="G12" s="94" t="s">
+        <v>193</v>
+      </c>
+      <c r="H12" s="94" t="s">
+        <v>194</v>
+      </c>
+      <c r="I12" s="94" t="s">
+        <v>195</v>
       </c>
       <c r="J12" s="60"/>
       <c r="K12" s="60"/>
@@ -10666,31 +10770,31 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="64" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="B13" s="91" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="93" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="F13" s="91" t="s">
-        <v>153</v>
-      </c>
-      <c r="G13" s="91" t="s">
-        <v>154</v>
-      </c>
-      <c r="H13" s="91" t="s">
-        <v>155</v>
-      </c>
-      <c r="I13" s="91" t="s">
-        <v>156</v>
+        <v>186</v>
+      </c>
+      <c r="F13" s="94" t="s">
+        <v>197</v>
+      </c>
+      <c r="G13" s="94" t="s">
+        <v>198</v>
+      </c>
+      <c r="H13" s="94" t="s">
+        <v>199</v>
+      </c>
+      <c r="I13" s="94" t="s">
+        <v>200</v>
       </c>
       <c r="J13" s="60"/>
       <c r="K13" s="60"/>
@@ -10699,31 +10803,31 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="64" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
       <c r="B14" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="94" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="95" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="93" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E14" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="F14" s="91" t="s">
-        <v>158</v>
-      </c>
-      <c r="G14" s="91" t="s">
-        <v>159</v>
-      </c>
-      <c r="H14" s="91" t="s">
-        <v>160</v>
-      </c>
-      <c r="I14" s="91" t="s">
-        <v>161</v>
+        <v>186</v>
+      </c>
+      <c r="F14" s="94" t="s">
+        <v>202</v>
+      </c>
+      <c r="G14" s="94" t="s">
+        <v>203</v>
+      </c>
+      <c r="H14" s="94" t="s">
+        <v>204</v>
+      </c>
+      <c r="I14" s="94" t="s">
+        <v>205</v>
       </c>
       <c r="J14" s="60"/>
       <c r="K14" s="60"/>
@@ -10732,31 +10836,31 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="64" t="s">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="B15" s="91" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C15" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="93" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E15" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="F15" s="91" t="s">
-        <v>163</v>
-      </c>
-      <c r="G15" s="91" t="s">
-        <v>164</v>
-      </c>
-      <c r="H15" s="91" t="s">
-        <v>165</v>
-      </c>
-      <c r="I15" s="91" t="s">
-        <v>166</v>
+        <v>186</v>
+      </c>
+      <c r="F15" s="94" t="s">
+        <v>207</v>
+      </c>
+      <c r="G15" s="94" t="s">
+        <v>208</v>
+      </c>
+      <c r="H15" s="94" t="s">
+        <v>209</v>
+      </c>
+      <c r="I15" s="94" t="s">
+        <v>210</v>
       </c>
       <c r="J15" s="60"/>
       <c r="K15" s="106"/>
@@ -10765,31 +10869,31 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="64" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
       <c r="B16" s="91" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="94" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="95" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="93" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E16" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="F16" s="91" t="s">
-        <v>168</v>
-      </c>
-      <c r="G16" s="91" t="s">
-        <v>169</v>
-      </c>
-      <c r="H16" s="91" t="s">
-        <v>170</v>
-      </c>
-      <c r="I16" s="91" t="s">
-        <v>171</v>
+        <v>186</v>
+      </c>
+      <c r="F16" s="94" t="s">
+        <v>212</v>
+      </c>
+      <c r="G16" s="94" t="s">
+        <v>213</v>
+      </c>
+      <c r="H16" s="94" t="s">
+        <v>214</v>
+      </c>
+      <c r="I16" s="94" t="s">
+        <v>215</v>
       </c>
       <c r="J16" s="60"/>
       <c r="K16" s="60"/>
@@ -10798,31 +10902,31 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="64" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="B17" s="91" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C17" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="93" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E17" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="F17" s="91" t="s">
-        <v>173</v>
-      </c>
-      <c r="G17" s="91" t="s">
-        <v>174</v>
-      </c>
-      <c r="H17" s="91" t="s">
-        <v>175</v>
-      </c>
-      <c r="I17" s="91" t="s">
-        <v>176</v>
+        <v>186</v>
+      </c>
+      <c r="F17" s="94" t="s">
+        <v>217</v>
+      </c>
+      <c r="G17" s="94" t="s">
+        <v>218</v>
+      </c>
+      <c r="H17" s="94" t="s">
+        <v>219</v>
+      </c>
+      <c r="I17" s="94" t="s">
+        <v>220</v>
       </c>
       <c r="J17" s="60"/>
       <c r="K17" s="60"/>
@@ -10831,31 +10935,31 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="64" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="B18" s="91" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="95" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="93" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E18" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="F18" s="91" t="s">
-        <v>178</v>
-      </c>
-      <c r="G18" s="91" t="s">
-        <v>179</v>
-      </c>
-      <c r="H18" s="91" t="s">
-        <v>180</v>
-      </c>
-      <c r="I18" s="91" t="s">
-        <v>181</v>
+        <v>186</v>
+      </c>
+      <c r="F18" s="94" t="s">
+        <v>222</v>
+      </c>
+      <c r="G18" s="94" t="s">
+        <v>223</v>
+      </c>
+      <c r="H18" s="94" t="s">
+        <v>224</v>
+      </c>
+      <c r="I18" s="94" t="s">
+        <v>225</v>
       </c>
       <c r="J18" s="60"/>
       <c r="K18" s="60"/>
@@ -10864,31 +10968,31 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="64" t="s">
-        <v>182</v>
+        <v>226</v>
       </c>
       <c r="B19" s="91" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C19" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="93" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E19" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="F19" s="91" t="s">
-        <v>183</v>
-      </c>
-      <c r="G19" s="91" t="s">
-        <v>184</v>
-      </c>
-      <c r="H19" s="91" t="s">
-        <v>185</v>
-      </c>
-      <c r="I19" s="91" t="s">
         <v>186</v>
+      </c>
+      <c r="F19" s="94" t="s">
+        <v>227</v>
+      </c>
+      <c r="G19" s="94" t="s">
+        <v>228</v>
+      </c>
+      <c r="H19" s="94" t="s">
+        <v>229</v>
+      </c>
+      <c r="I19" s="94" t="s">
+        <v>230</v>
       </c>
       <c r="J19" s="60"/>
       <c r="K19" s="106"/>
@@ -10897,31 +11001,31 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="64" t="s">
-        <v>187</v>
+        <v>231</v>
       </c>
       <c r="B20" s="91" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="95" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="93" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E20" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="F20" s="91" t="s">
-        <v>188</v>
-      </c>
-      <c r="G20" s="91" t="s">
-        <v>189</v>
-      </c>
-      <c r="H20" s="91" t="s">
-        <v>190</v>
-      </c>
-      <c r="I20" s="91" t="s">
-        <v>191</v>
+        <v>186</v>
+      </c>
+      <c r="F20" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="G20" s="94" t="s">
+        <v>233</v>
+      </c>
+      <c r="H20" s="94" t="s">
+        <v>234</v>
+      </c>
+      <c r="I20" s="94" t="s">
+        <v>235</v>
       </c>
       <c r="J20" s="60"/>
       <c r="K20" s="60"/>
@@ -10930,31 +11034,31 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="64" t="s">
-        <v>192</v>
+        <v>236</v>
       </c>
       <c r="B21" s="91" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C21" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="93" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E21" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="F21" s="91" t="s">
-        <v>193</v>
-      </c>
-      <c r="G21" s="91" t="s">
-        <v>194</v>
-      </c>
-      <c r="H21" s="91" t="s">
-        <v>195</v>
-      </c>
-      <c r="I21" s="91" t="s">
-        <v>196</v>
+        <v>186</v>
+      </c>
+      <c r="F21" s="94" t="s">
+        <v>237</v>
+      </c>
+      <c r="G21" s="94" t="s">
+        <v>238</v>
+      </c>
+      <c r="H21" s="94" t="s">
+        <v>239</v>
+      </c>
+      <c r="I21" s="94" t="s">
+        <v>240</v>
       </c>
       <c r="J21" s="60"/>
       <c r="K21" s="60"/>
@@ -10963,31 +11067,31 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="64" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
       <c r="B22" s="91" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="94" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="95" t="s">
         <v>32</v>
       </c>
       <c r="D22" s="93" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E22" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="F22" s="91" t="s">
-        <v>198</v>
-      </c>
-      <c r="G22" s="91" t="s">
-        <v>199</v>
-      </c>
-      <c r="H22" s="91" t="s">
-        <v>200</v>
-      </c>
-      <c r="I22" s="91" t="s">
-        <v>201</v>
+        <v>186</v>
+      </c>
+      <c r="F22" s="94" t="s">
+        <v>242</v>
+      </c>
+      <c r="G22" s="94" t="s">
+        <v>243</v>
+      </c>
+      <c r="H22" s="94" t="s">
+        <v>244</v>
+      </c>
+      <c r="I22" s="94" t="s">
+        <v>245</v>
       </c>
       <c r="J22" s="60"/>
       <c r="K22" s="60"/>
@@ -10996,31 +11100,31 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="64" t="s">
-        <v>202</v>
+        <v>246</v>
       </c>
       <c r="B23" s="91" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C23" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="93" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E23" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="F23" s="91" t="s">
-        <v>203</v>
-      </c>
-      <c r="G23" s="91" t="s">
-        <v>204</v>
-      </c>
-      <c r="H23" s="91" t="s">
-        <v>205</v>
-      </c>
-      <c r="I23" s="91" t="s">
-        <v>206</v>
+        <v>186</v>
+      </c>
+      <c r="F23" s="94" t="s">
+        <v>247</v>
+      </c>
+      <c r="G23" s="94" t="s">
+        <v>248</v>
+      </c>
+      <c r="H23" s="94" t="s">
+        <v>249</v>
+      </c>
+      <c r="I23" s="94" t="s">
+        <v>250</v>
       </c>
       <c r="J23" s="60"/>
       <c r="K23" s="106"/>
@@ -11029,31 +11133,31 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="64" t="s">
-        <v>207</v>
+        <v>251</v>
       </c>
       <c r="B24" s="91" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="94" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="95" t="s">
         <v>32</v>
       </c>
       <c r="D24" s="93" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E24" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="F24" s="91" t="s">
-        <v>208</v>
-      </c>
-      <c r="G24" s="91" t="s">
-        <v>209</v>
-      </c>
-      <c r="H24" s="91" t="s">
-        <v>210</v>
-      </c>
-      <c r="I24" s="91" t="s">
-        <v>211</v>
+        <v>186</v>
+      </c>
+      <c r="F24" s="94" t="s">
+        <v>252</v>
+      </c>
+      <c r="G24" s="94" t="s">
+        <v>253</v>
+      </c>
+      <c r="H24" s="94" t="s">
+        <v>254</v>
+      </c>
+      <c r="I24" s="94" t="s">
+        <v>255</v>
       </c>
       <c r="J24" s="60"/>
       <c r="K24" s="60"/>
@@ -11062,31 +11166,31 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="64" t="s">
-        <v>212</v>
+        <v>256</v>
       </c>
       <c r="B25" s="91" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C25" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="93" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E25" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="F25" s="91" t="s">
-        <v>213</v>
-      </c>
-      <c r="G25" s="91" t="s">
-        <v>214</v>
-      </c>
-      <c r="H25" s="91" t="s">
-        <v>215</v>
-      </c>
-      <c r="I25" s="91" t="s">
-        <v>216</v>
+        <v>186</v>
+      </c>
+      <c r="F25" s="94" t="s">
+        <v>257</v>
+      </c>
+      <c r="G25" s="94" t="s">
+        <v>258</v>
+      </c>
+      <c r="H25" s="94" t="s">
+        <v>259</v>
+      </c>
+      <c r="I25" s="94" t="s">
+        <v>260</v>
       </c>
       <c r="J25" s="60"/>
       <c r="K25" s="60"/>
@@ -11095,31 +11199,31 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="64" t="s">
-        <v>217</v>
+        <v>261</v>
       </c>
       <c r="B26" s="91" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="95" t="s">
         <v>32</v>
       </c>
       <c r="D26" s="93" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="E26" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="F26" s="91" t="s">
-        <v>218</v>
-      </c>
-      <c r="G26" s="91" t="s">
-        <v>219</v>
-      </c>
-      <c r="H26" s="91" t="s">
-        <v>220</v>
-      </c>
-      <c r="I26" s="91" t="s">
-        <v>221</v>
+        <v>186</v>
+      </c>
+      <c r="F26" s="94" t="s">
+        <v>262</v>
+      </c>
+      <c r="G26" s="94" t="s">
+        <v>263</v>
+      </c>
+      <c r="H26" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="I26" s="94" t="s">
+        <v>265</v>
       </c>
       <c r="J26" s="60"/>
       <c r="K26" s="60"/>
@@ -11128,31 +11232,31 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="64" t="s">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="B27" s="91" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C27" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D27" s="93" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E27" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="F27" s="91" t="s">
-        <v>223</v>
-      </c>
-      <c r="G27" s="91" t="s">
-        <v>224</v>
-      </c>
-      <c r="H27" s="91" t="s">
-        <v>225</v>
-      </c>
-      <c r="I27" s="91" t="s">
-        <v>226</v>
+        <v>186</v>
+      </c>
+      <c r="F27" s="94" t="s">
+        <v>267</v>
+      </c>
+      <c r="G27" s="94" t="s">
+        <v>268</v>
+      </c>
+      <c r="H27" s="94" t="s">
+        <v>269</v>
+      </c>
+      <c r="I27" s="94" t="s">
+        <v>270</v>
       </c>
       <c r="J27" s="60"/>
       <c r="K27" s="106"/>
@@ -11161,31 +11265,31 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="64" t="s">
-        <v>227</v>
+        <v>271</v>
       </c>
       <c r="B28" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="94" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="95" t="s">
         <v>32</v>
       </c>
       <c r="D28" s="93" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="E28" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="F28" s="91" t="s">
-        <v>228</v>
-      </c>
-      <c r="G28" s="91" t="s">
-        <v>229</v>
-      </c>
-      <c r="H28" s="91" t="s">
-        <v>230</v>
-      </c>
-      <c r="I28" s="91" t="s">
-        <v>231</v>
+        <v>186</v>
+      </c>
+      <c r="F28" s="94" t="s">
+        <v>272</v>
+      </c>
+      <c r="G28" s="94" t="s">
+        <v>273</v>
+      </c>
+      <c r="H28" s="94" t="s">
+        <v>274</v>
+      </c>
+      <c r="I28" s="94" t="s">
+        <v>275</v>
       </c>
       <c r="J28" s="60"/>
       <c r="K28" s="60"/>
@@ -11194,31 +11298,31 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="64" t="s">
-        <v>232</v>
+        <v>276</v>
       </c>
       <c r="B29" s="91" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C29" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D29" s="93" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E29" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="F29" s="91" t="s">
-        <v>233</v>
-      </c>
-      <c r="G29" s="91" t="s">
-        <v>234</v>
-      </c>
-      <c r="H29" s="91" t="s">
-        <v>235</v>
-      </c>
-      <c r="I29" s="91" t="s">
-        <v>236</v>
+        <v>186</v>
+      </c>
+      <c r="F29" s="94" t="s">
+        <v>277</v>
+      </c>
+      <c r="G29" s="94" t="s">
+        <v>278</v>
+      </c>
+      <c r="H29" s="94" t="s">
+        <v>279</v>
+      </c>
+      <c r="I29" s="94" t="s">
+        <v>280</v>
       </c>
       <c r="J29" s="60"/>
       <c r="K29" s="60"/>
@@ -11227,31 +11331,31 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="64" t="s">
-        <v>237</v>
+        <v>281</v>
       </c>
       <c r="B30" s="91" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="94" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="95" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="93" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="E30" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="F30" s="91" t="s">
-        <v>238</v>
-      </c>
-      <c r="G30" s="91" t="s">
-        <v>239</v>
-      </c>
-      <c r="H30" s="91" t="s">
-        <v>240</v>
-      </c>
-      <c r="I30" s="91" t="s">
-        <v>241</v>
+        <v>186</v>
+      </c>
+      <c r="F30" s="94" t="s">
+        <v>282</v>
+      </c>
+      <c r="G30" s="94" t="s">
+        <v>283</v>
+      </c>
+      <c r="H30" s="94" t="s">
+        <v>284</v>
+      </c>
+      <c r="I30" s="94" t="s">
+        <v>285</v>
       </c>
       <c r="J30" s="60"/>
       <c r="K30" s="60"/>
@@ -11260,31 +11364,31 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="64" t="s">
-        <v>242</v>
+        <v>286</v>
       </c>
       <c r="B31" s="91" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C31" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D31" s="93" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="E31" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="F31" s="91" t="s">
-        <v>243</v>
-      </c>
-      <c r="G31" s="91" t="s">
-        <v>244</v>
-      </c>
-      <c r="H31" s="91" t="s">
-        <v>245</v>
-      </c>
-      <c r="I31" s="91" t="s">
-        <v>246</v>
+        <v>186</v>
+      </c>
+      <c r="F31" s="94" t="s">
+        <v>287</v>
+      </c>
+      <c r="G31" s="94" t="s">
+        <v>288</v>
+      </c>
+      <c r="H31" s="94" t="s">
+        <v>289</v>
+      </c>
+      <c r="I31" s="94" t="s">
+        <v>290</v>
       </c>
       <c r="J31" s="60"/>
       <c r="K31" s="106"/>
@@ -11293,31 +11397,31 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="64" t="s">
-        <v>247</v>
+        <v>291</v>
       </c>
       <c r="B32" s="91" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="95" t="s">
         <v>32</v>
       </c>
       <c r="D32" s="93" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E32" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="F32" s="91" t="s">
-        <v>248</v>
-      </c>
-      <c r="G32" s="91" t="s">
-        <v>249</v>
-      </c>
-      <c r="H32" s="91" t="s">
-        <v>250</v>
-      </c>
-      <c r="I32" s="91" t="s">
-        <v>251</v>
+        <v>186</v>
+      </c>
+      <c r="F32" s="94" t="s">
+        <v>292</v>
+      </c>
+      <c r="G32" s="94" t="s">
+        <v>293</v>
+      </c>
+      <c r="H32" s="94" t="s">
+        <v>294</v>
+      </c>
+      <c r="I32" s="94" t="s">
+        <v>295</v>
       </c>
       <c r="J32" s="60"/>
       <c r="K32" s="60"/>
@@ -11326,31 +11430,31 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="64" t="s">
-        <v>252</v>
+        <v>296</v>
       </c>
       <c r="B33" s="91" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="C33" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D33" s="93" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="E33" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="F33" s="91" t="s">
-        <v>253</v>
-      </c>
-      <c r="G33" s="91" t="s">
-        <v>254</v>
-      </c>
-      <c r="H33" s="91" t="s">
-        <v>255</v>
-      </c>
-      <c r="I33" s="91" t="s">
-        <v>256</v>
+        <v>186</v>
+      </c>
+      <c r="F33" s="94" t="s">
+        <v>297</v>
+      </c>
+      <c r="G33" s="94" t="s">
+        <v>298</v>
+      </c>
+      <c r="H33" s="94" t="s">
+        <v>299</v>
+      </c>
+      <c r="I33" s="94" t="s">
+        <v>300</v>
       </c>
       <c r="J33" s="60"/>
       <c r="K33" s="60"/>
@@ -11359,31 +11463,31 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="64" t="s">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="B34" s="91" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" s="94" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="95" t="s">
         <v>32</v>
       </c>
       <c r="D34" s="93" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="E34" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="F34" s="91" t="s">
-        <v>258</v>
-      </c>
-      <c r="G34" s="91" t="s">
-        <v>259</v>
-      </c>
-      <c r="H34" s="91" t="s">
-        <v>260</v>
-      </c>
-      <c r="I34" s="91" t="s">
-        <v>261</v>
+        <v>186</v>
+      </c>
+      <c r="F34" s="94" t="s">
+        <v>302</v>
+      </c>
+      <c r="G34" s="94" t="s">
+        <v>303</v>
+      </c>
+      <c r="H34" s="94" t="s">
+        <v>304</v>
+      </c>
+      <c r="I34" s="94" t="s">
+        <v>305</v>
       </c>
       <c r="J34" s="60"/>
       <c r="K34" s="60"/>
@@ -11392,31 +11496,31 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="64" t="s">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="B35" s="91" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="C35" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D35" s="93" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="E35" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="F35" s="91" t="s">
-        <v>263</v>
-      </c>
-      <c r="G35" s="91" t="s">
-        <v>264</v>
-      </c>
-      <c r="H35" s="91" t="s">
-        <v>265</v>
-      </c>
-      <c r="I35" s="91" t="s">
-        <v>266</v>
+        <v>186</v>
+      </c>
+      <c r="F35" s="94" t="s">
+        <v>307</v>
+      </c>
+      <c r="G35" s="94" t="s">
+        <v>308</v>
+      </c>
+      <c r="H35" s="94" t="s">
+        <v>309</v>
+      </c>
+      <c r="I35" s="94" t="s">
+        <v>310</v>
       </c>
       <c r="J35" s="60"/>
       <c r="K35" s="106"/>
@@ -11425,31 +11529,31 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="64" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="B36" s="91" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="94" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="95" t="s">
         <v>32</v>
       </c>
       <c r="D36" s="93" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="E36" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="F36" s="91" t="s">
-        <v>268</v>
-      </c>
-      <c r="G36" s="91" t="s">
-        <v>269</v>
-      </c>
-      <c r="H36" s="91" t="s">
-        <v>270</v>
-      </c>
-      <c r="I36" s="91" t="s">
-        <v>271</v>
+        <v>186</v>
+      </c>
+      <c r="F36" s="94" t="s">
+        <v>312</v>
+      </c>
+      <c r="G36" s="94" t="s">
+        <v>313</v>
+      </c>
+      <c r="H36" s="94" t="s">
+        <v>314</v>
+      </c>
+      <c r="I36" s="94" t="s">
+        <v>315</v>
       </c>
       <c r="J36" s="60"/>
       <c r="K36" s="60"/>
@@ -11458,31 +11562,31 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="64" t="s">
-        <v>272</v>
+        <v>316</v>
       </c>
       <c r="B37" s="91" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="C37" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D37" s="93" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="E37" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="F37" s="91" t="s">
-        <v>273</v>
-      </c>
-      <c r="G37" s="91" t="s">
-        <v>274</v>
-      </c>
-      <c r="H37" s="91" t="s">
-        <v>275</v>
-      </c>
-      <c r="I37" s="91" t="s">
-        <v>276</v>
+        <v>186</v>
+      </c>
+      <c r="F37" s="94" t="s">
+        <v>317</v>
+      </c>
+      <c r="G37" s="94" t="s">
+        <v>318</v>
+      </c>
+      <c r="H37" s="94" t="s">
+        <v>319</v>
+      </c>
+      <c r="I37" s="94" t="s">
+        <v>320</v>
       </c>
       <c r="J37" s="60"/>
       <c r="K37" s="60"/>
@@ -11491,31 +11595,31 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="64" t="s">
-        <v>277</v>
+        <v>321</v>
       </c>
       <c r="B38" s="91" t="s">
-        <v>92</v>
-      </c>
-      <c r="C38" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" s="95" t="s">
         <v>32</v>
       </c>
       <c r="D38" s="93" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="E38" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="F38" s="91" t="s">
-        <v>278</v>
-      </c>
-      <c r="G38" s="91" t="s">
-        <v>279</v>
-      </c>
-      <c r="H38" s="91" t="s">
-        <v>280</v>
-      </c>
-      <c r="I38" s="91" t="s">
-        <v>281</v>
+        <v>186</v>
+      </c>
+      <c r="F38" s="94" t="s">
+        <v>322</v>
+      </c>
+      <c r="G38" s="94" t="s">
+        <v>323</v>
+      </c>
+      <c r="H38" s="94" t="s">
+        <v>324</v>
+      </c>
+      <c r="I38" s="94" t="s">
+        <v>325</v>
       </c>
       <c r="J38" s="60"/>
       <c r="K38" s="60"/>
@@ -11524,31 +11628,31 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="64" t="s">
-        <v>282</v>
+        <v>326</v>
       </c>
       <c r="B39" s="91" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="C39" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D39" s="93" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="E39" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="F39" s="91" t="s">
-        <v>283</v>
-      </c>
-      <c r="G39" s="91" t="s">
-        <v>284</v>
-      </c>
-      <c r="H39" s="91" t="s">
-        <v>285</v>
-      </c>
-      <c r="I39" s="91" t="s">
-        <v>286</v>
+        <v>186</v>
+      </c>
+      <c r="F39" s="94" t="s">
+        <v>327</v>
+      </c>
+      <c r="G39" s="94" t="s">
+        <v>328</v>
+      </c>
+      <c r="H39" s="94" t="s">
+        <v>329</v>
+      </c>
+      <c r="I39" s="94" t="s">
+        <v>330</v>
       </c>
       <c r="J39" s="60"/>
       <c r="K39" s="106"/>
@@ -11557,466 +11661,466 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="64" t="s">
-        <v>287</v>
+        <v>331</v>
       </c>
       <c r="B40" s="91" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" s="94" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="95" t="s">
         <v>32</v>
       </c>
       <c r="D40" s="93" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="E40" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="F40" s="91" t="s">
-        <v>288</v>
-      </c>
-      <c r="G40" s="91" t="s">
-        <v>289</v>
-      </c>
-      <c r="H40" s="91" t="s">
-        <v>290</v>
-      </c>
-      <c r="I40" s="91" t="s">
-        <v>291</v>
+        <v>186</v>
+      </c>
+      <c r="F40" s="94" t="s">
+        <v>332</v>
+      </c>
+      <c r="G40" s="94" t="s">
+        <v>333</v>
+      </c>
+      <c r="H40" s="94" t="s">
+        <v>334</v>
+      </c>
+      <c r="I40" s="94" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="64" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="B41" s="91" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="C41" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D41" s="93" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="E41" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="F41" s="91" t="s">
-        <v>293</v>
-      </c>
-      <c r="G41" s="91" t="s">
-        <v>294</v>
-      </c>
-      <c r="H41" s="91" t="s">
-        <v>295</v>
-      </c>
-      <c r="I41" s="91" t="s">
-        <v>296</v>
+        <v>186</v>
+      </c>
+      <c r="F41" s="94" t="s">
+        <v>337</v>
+      </c>
+      <c r="G41" s="94" t="s">
+        <v>338</v>
+      </c>
+      <c r="H41" s="94" t="s">
+        <v>339</v>
+      </c>
+      <c r="I41" s="94" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="64" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
       <c r="B42" s="91" t="s">
-        <v>100</v>
-      </c>
-      <c r="C42" s="94" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="95" t="s">
         <v>32</v>
       </c>
       <c r="D42" s="93" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="E42" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="F42" s="91" t="s">
-        <v>298</v>
-      </c>
-      <c r="G42" s="91" t="s">
-        <v>299</v>
-      </c>
-      <c r="H42" s="91" t="s">
-        <v>300</v>
-      </c>
-      <c r="I42" s="91" t="s">
-        <v>301</v>
+        <v>186</v>
+      </c>
+      <c r="F42" s="94" t="s">
+        <v>342</v>
+      </c>
+      <c r="G42" s="94" t="s">
+        <v>343</v>
+      </c>
+      <c r="H42" s="94" t="s">
+        <v>344</v>
+      </c>
+      <c r="I42" s="94" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="64" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="B43" s="91" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="C43" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D43" s="93" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="E43" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="F43" s="91" t="s">
-        <v>303</v>
-      </c>
-      <c r="G43" s="91" t="s">
-        <v>304</v>
-      </c>
-      <c r="H43" s="91" t="s">
-        <v>305</v>
-      </c>
-      <c r="I43" s="91" t="s">
-        <v>306</v>
+        <v>186</v>
+      </c>
+      <c r="F43" s="94" t="s">
+        <v>347</v>
+      </c>
+      <c r="G43" s="94" t="s">
+        <v>348</v>
+      </c>
+      <c r="H43" s="94" t="s">
+        <v>349</v>
+      </c>
+      <c r="I43" s="94" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="64" t="s">
-        <v>307</v>
+        <v>351</v>
       </c>
       <c r="B44" s="91" t="s">
-        <v>104</v>
-      </c>
-      <c r="C44" s="94" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="95" t="s">
         <v>32</v>
       </c>
       <c r="D44" s="93" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="E44" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="F44" s="91" t="s">
-        <v>308</v>
-      </c>
-      <c r="G44" s="91" t="s">
-        <v>309</v>
-      </c>
-      <c r="H44" s="91" t="s">
-        <v>310</v>
-      </c>
-      <c r="I44" s="91" t="s">
-        <v>311</v>
+        <v>186</v>
+      </c>
+      <c r="F44" s="94" t="s">
+        <v>352</v>
+      </c>
+      <c r="G44" s="94" t="s">
+        <v>353</v>
+      </c>
+      <c r="H44" s="94" t="s">
+        <v>354</v>
+      </c>
+      <c r="I44" s="94" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="64" t="s">
-        <v>312</v>
+        <v>356</v>
       </c>
       <c r="B45" s="91" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="C45" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D45" s="93" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="E45" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="F45" s="91" t="s">
-        <v>313</v>
-      </c>
-      <c r="G45" s="91" t="s">
-        <v>314</v>
-      </c>
-      <c r="H45" s="91" t="s">
-        <v>315</v>
-      </c>
-      <c r="I45" s="91" t="s">
-        <v>316</v>
+        <v>186</v>
+      </c>
+      <c r="F45" s="94" t="s">
+        <v>357</v>
+      </c>
+      <c r="G45" s="94" t="s">
+        <v>358</v>
+      </c>
+      <c r="H45" s="94" t="s">
+        <v>359</v>
+      </c>
+      <c r="I45" s="94" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="64" t="s">
-        <v>317</v>
+        <v>361</v>
       </c>
       <c r="B46" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="C46" s="94" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" s="95" t="s">
         <v>32</v>
       </c>
       <c r="D46" s="93" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="E46" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="F46" s="91" t="s">
-        <v>318</v>
-      </c>
-      <c r="G46" s="91" t="s">
-        <v>319</v>
-      </c>
-      <c r="H46" s="91" t="s">
-        <v>320</v>
-      </c>
-      <c r="I46" s="91" t="s">
-        <v>321</v>
+        <v>186</v>
+      </c>
+      <c r="F46" s="94" t="s">
+        <v>362</v>
+      </c>
+      <c r="G46" s="94" t="s">
+        <v>363</v>
+      </c>
+      <c r="H46" s="94" t="s">
+        <v>364</v>
+      </c>
+      <c r="I46" s="94" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="64" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="B47" s="91" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="C47" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D47" s="93" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="E47" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="F47" s="91" t="s">
-        <v>323</v>
-      </c>
-      <c r="G47" s="91" t="s">
-        <v>324</v>
-      </c>
-      <c r="H47" s="91" t="s">
-        <v>325</v>
-      </c>
-      <c r="I47" s="91" t="s">
-        <v>326</v>
+        <v>186</v>
+      </c>
+      <c r="F47" s="94" t="s">
+        <v>367</v>
+      </c>
+      <c r="G47" s="94" t="s">
+        <v>368</v>
+      </c>
+      <c r="H47" s="94" t="s">
+        <v>369</v>
+      </c>
+      <c r="I47" s="94" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="64" t="s">
-        <v>327</v>
+        <v>371</v>
       </c>
       <c r="B48" s="91" t="s">
-        <v>112</v>
-      </c>
-      <c r="C48" s="94" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" s="95" t="s">
         <v>32</v>
       </c>
       <c r="D48" s="93" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="E48" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="F48" s="91" t="s">
-        <v>328</v>
-      </c>
-      <c r="G48" s="91" t="s">
-        <v>329</v>
-      </c>
-      <c r="H48" s="91" t="s">
-        <v>330</v>
-      </c>
-      <c r="I48" s="91" t="s">
-        <v>331</v>
+        <v>186</v>
+      </c>
+      <c r="F48" s="94" t="s">
+        <v>372</v>
+      </c>
+      <c r="G48" s="94" t="s">
+        <v>373</v>
+      </c>
+      <c r="H48" s="94" t="s">
+        <v>374</v>
+      </c>
+      <c r="I48" s="94" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="64" t="s">
-        <v>332</v>
+        <v>376</v>
       </c>
       <c r="B49" s="91" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="C49" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D49" s="93" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="E49" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="F49" s="91" t="s">
-        <v>333</v>
-      </c>
-      <c r="G49" s="91" t="s">
-        <v>334</v>
-      </c>
-      <c r="H49" s="91" t="s">
-        <v>335</v>
-      </c>
-      <c r="I49" s="91" t="s">
-        <v>336</v>
+        <v>186</v>
+      </c>
+      <c r="F49" s="94" t="s">
+        <v>377</v>
+      </c>
+      <c r="G49" s="94" t="s">
+        <v>378</v>
+      </c>
+      <c r="H49" s="94" t="s">
+        <v>379</v>
+      </c>
+      <c r="I49" s="94" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="64" t="s">
-        <v>337</v>
+        <v>381</v>
       </c>
       <c r="B50" s="91" t="s">
-        <v>116</v>
-      </c>
-      <c r="C50" s="94" t="s">
+        <v>154</v>
+      </c>
+      <c r="C50" s="95" t="s">
         <v>32</v>
       </c>
       <c r="D50" s="93" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="E50" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="F50" s="91" t="s">
-        <v>338</v>
-      </c>
-      <c r="G50" s="91" t="s">
-        <v>339</v>
-      </c>
-      <c r="H50" s="91" t="s">
-        <v>340</v>
-      </c>
-      <c r="I50" s="91" t="s">
-        <v>341</v>
+        <v>186</v>
+      </c>
+      <c r="F50" s="94" t="s">
+        <v>382</v>
+      </c>
+      <c r="G50" s="94" t="s">
+        <v>383</v>
+      </c>
+      <c r="H50" s="94" t="s">
+        <v>384</v>
+      </c>
+      <c r="I50" s="94" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="64" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="B51" s="91" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="C51" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D51" s="93" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="E51" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="F51" s="91" t="s">
-        <v>343</v>
-      </c>
-      <c r="G51" s="91" t="s">
-        <v>344</v>
-      </c>
-      <c r="H51" s="91" t="s">
-        <v>345</v>
-      </c>
-      <c r="I51" s="91" t="s">
-        <v>346</v>
+        <v>186</v>
+      </c>
+      <c r="F51" s="94" t="s">
+        <v>387</v>
+      </c>
+      <c r="G51" s="94" t="s">
+        <v>388</v>
+      </c>
+      <c r="H51" s="94" t="s">
+        <v>389</v>
+      </c>
+      <c r="I51" s="94" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="64" t="s">
-        <v>347</v>
+        <v>391</v>
       </c>
       <c r="B52" s="91" t="s">
-        <v>120</v>
-      </c>
-      <c r="C52" s="94" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" s="95" t="s">
         <v>32</v>
       </c>
       <c r="D52" s="93" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E52" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="F52" s="91" t="s">
-        <v>348</v>
-      </c>
-      <c r="G52" s="91" t="s">
-        <v>349</v>
-      </c>
-      <c r="H52" s="91" t="s">
-        <v>350</v>
-      </c>
-      <c r="I52" s="91" t="s">
-        <v>351</v>
+        <v>186</v>
+      </c>
+      <c r="F52" s="94" t="s">
+        <v>392</v>
+      </c>
+      <c r="G52" s="94" t="s">
+        <v>393</v>
+      </c>
+      <c r="H52" s="94" t="s">
+        <v>394</v>
+      </c>
+      <c r="I52" s="94" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="64" t="s">
-        <v>352</v>
+        <v>396</v>
       </c>
       <c r="B53" s="91" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="C53" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D53" s="93" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="E53" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="F53" s="91" t="s">
-        <v>353</v>
-      </c>
-      <c r="G53" s="91" t="s">
-        <v>354</v>
-      </c>
-      <c r="H53" s="91" t="s">
-        <v>355</v>
-      </c>
-      <c r="I53" s="91" t="s">
-        <v>356</v>
+        <v>186</v>
+      </c>
+      <c r="F53" s="94" t="s">
+        <v>397</v>
+      </c>
+      <c r="G53" s="94" t="s">
+        <v>398</v>
+      </c>
+      <c r="H53" s="94" t="s">
+        <v>399</v>
+      </c>
+      <c r="I53" s="94" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="64" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="B54" s="91" t="s">
-        <v>124</v>
-      </c>
-      <c r="C54" s="94" t="s">
+        <v>166</v>
+      </c>
+      <c r="C54" s="95" t="s">
         <v>32</v>
       </c>
       <c r="D54" s="93" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="E54" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="F54" s="91" t="s">
-        <v>358</v>
-      </c>
-      <c r="G54" s="91" t="s">
-        <v>359</v>
-      </c>
-      <c r="H54" s="91" t="s">
-        <v>360</v>
-      </c>
-      <c r="I54" s="91" t="s">
-        <v>361</v>
+        <v>186</v>
+      </c>
+      <c r="F54" s="94" t="s">
+        <v>402</v>
+      </c>
+      <c r="G54" s="94" t="s">
+        <v>403</v>
+      </c>
+      <c r="H54" s="94" t="s">
+        <v>404</v>
+      </c>
+      <c r="I54" s="94" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="64" t="s">
-        <v>362</v>
+        <v>406</v>
       </c>
       <c r="B55" s="91" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="C55" s="92" t="s">
         <v>32</v>
       </c>
       <c r="D55" s="93" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="E55" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="F55" s="91" t="s">
-        <v>363</v>
-      </c>
-      <c r="G55" s="91" t="s">
-        <v>364</v>
-      </c>
-      <c r="H55" s="91" t="s">
-        <v>365</v>
-      </c>
-      <c r="I55" s="91" t="s">
-        <v>366</v>
+        <v>186</v>
+      </c>
+      <c r="F55" s="94" t="s">
+        <v>407</v>
+      </c>
+      <c r="G55" s="94" t="s">
+        <v>408</v>
+      </c>
+      <c r="H55" s="94" t="s">
+        <v>409</v>
+      </c>
+      <c r="I55" s="94" t="s">
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -12033,7 +12137,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:E55 E56:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:E1048576">
       <formula1>ok!$F$2:$F$15</formula1>
     </dataValidation>
   </dataValidations>
@@ -12071,7 +12175,7 @@
   <sheetData>
     <row r="1" ht="28" spans="1:9">
       <c r="A1" s="29" t="s">
-        <v>367</v>
+        <v>411</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -12084,7 +12188,7 @@
     </row>
     <row r="2" ht="34.5" customHeight="1" spans="1:9">
       <c r="A2" s="30" t="s">
-        <v>368</v>
+        <v>412</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -12100,13 +12204,13 @@
     </row>
     <row r="4" ht="32.5" spans="1:9">
       <c r="A4" s="31" t="s">
-        <v>369</v>
+        <v>413</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
       <c r="F4" s="31" t="s">
-        <v>370</v>
+        <v>414</v>
       </c>
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
@@ -12114,29 +12218,29 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="32" t="s">
-        <v>371</v>
+        <v>415</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>373</v>
+        <v>417</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>374</v>
+        <v>418</v>
       </c>
       <c r="E5" s="35"/>
       <c r="F5" s="36" t="s">
-        <v>371</v>
+        <v>415</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>373</v>
+        <v>417</v>
       </c>
       <c r="I5" s="34" t="s">
-        <v>374</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" ht="28" spans="1:9">
@@ -12144,117 +12248,117 @@
         <v>13</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>375</v>
+        <v>419</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>376</v>
+        <v>420</v>
       </c>
       <c r="D6" s="39"/>
       <c r="E6" s="35"/>
       <c r="F6" s="40" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="H6" s="39" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="I6" s="39"/>
     </row>
     <row r="7" ht="42" spans="1:9">
       <c r="A7" s="41" t="s">
-        <v>380</v>
+        <v>424</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>381</v>
+        <v>425</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>382</v>
+        <v>426</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>383</v>
+        <v>427</v>
       </c>
       <c r="E7" s="35"/>
       <c r="F7" s="42" t="s">
-        <v>384</v>
+        <v>428</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>386</v>
+        <v>430</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>383</v>
+        <v>427</v>
       </c>
     </row>
     <row r="8" ht="56" spans="1:9">
       <c r="A8" s="41" t="s">
-        <v>387</v>
+        <v>431</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="D8" s="39"/>
       <c r="E8" s="35"/>
       <c r="F8" s="42" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="I8" s="39"/>
     </row>
     <row r="9" ht="36" customHeight="1" spans="1:9">
       <c r="A9" s="41" t="s">
-        <v>393</v>
+        <v>437</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>394</v>
+        <v>438</v>
       </c>
       <c r="C9" s="39"/>
       <c r="D9" s="39"/>
       <c r="E9" s="35"/>
       <c r="F9" s="42" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="H9" s="39" t="s">
-        <v>397</v>
+        <v>441</v>
       </c>
       <c r="I9" s="39"/>
     </row>
     <row r="10" ht="70" spans="1:9">
       <c r="A10" s="42" t="s">
-        <v>398</v>
+        <v>442</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>399</v>
+        <v>443</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>383</v>
+        <v>427</v>
       </c>
       <c r="E10" s="35"/>
       <c r="F10" s="42" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
       <c r="H10" s="39" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="I10" s="39"/>
     </row>
@@ -12263,118 +12367,118 @@
         <v>16</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="C11" s="38"/>
       <c r="D11" s="39" t="s">
-        <v>383</v>
+        <v>427</v>
       </c>
       <c r="E11" s="35"/>
       <c r="F11" s="42" t="s">
-        <v>405</v>
+        <v>449</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" ht="42" spans="1:9">
       <c r="A12" s="41" t="s">
-        <v>409</v>
+        <v>453</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>410</v>
+        <v>454</v>
       </c>
       <c r="C12" s="44"/>
       <c r="D12" s="38"/>
       <c r="E12" s="35"/>
       <c r="F12" s="39" t="s">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>411</v>
+        <v>455</v>
       </c>
       <c r="H12" s="39" t="s">
-        <v>412</v>
+        <v>456</v>
       </c>
       <c r="I12" s="39"/>
     </row>
     <row r="13" ht="56" spans="1:9">
       <c r="A13" s="41" t="s">
-        <v>413</v>
+        <v>457</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>414</v>
+        <v>458</v>
       </c>
       <c r="C13" s="45"/>
       <c r="D13" s="45"/>
       <c r="E13" s="35"/>
       <c r="F13" s="39" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>415</v>
+        <v>459</v>
       </c>
       <c r="H13" s="39"/>
       <c r="I13" s="39" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
     </row>
     <row r="14" ht="36" customHeight="1" spans="1:9">
       <c r="A14" s="41" t="s">
-        <v>416</v>
+        <v>460</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>417</v>
+        <v>461</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="45"/>
       <c r="E14" s="35"/>
       <c r="F14" s="39" t="s">
-        <v>418</v>
+        <v>462</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>419</v>
+        <v>463</v>
       </c>
       <c r="H14" s="47" t="s">
-        <v>420</v>
+        <v>464</v>
       </c>
       <c r="I14" s="39"/>
     </row>
     <row r="15" ht="34.5" customHeight="1" spans="1:9">
       <c r="A15" s="41" t="s">
-        <v>421</v>
+        <v>465</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>422</v>
+        <v>466</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>423</v>
+        <v>467</v>
       </c>
       <c r="D15" s="38"/>
       <c r="E15" s="35"/>
       <c r="F15" s="49" t="s">
-        <v>424</v>
+        <v>468</v>
       </c>
       <c r="G15" s="50" t="s">
-        <v>425</v>
+        <v>469</v>
       </c>
       <c r="H15" s="51"/>
       <c r="I15" s="57" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
     </row>
     <row r="16" ht="34.5" customHeight="1" spans="1:9">
       <c r="A16" s="42" t="s">
-        <v>426</v>
+        <v>470</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>427</v>
+        <v>471</v>
       </c>
       <c r="C16" s="52"/>
       <c r="D16" s="38"/>
@@ -12386,19 +12490,19 @@
     </row>
     <row r="17" ht="34.5" customHeight="1" spans="1:9">
       <c r="A17" s="39" t="s">
-        <v>428</v>
+        <v>472</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>429</v>
+        <v>473</v>
       </c>
       <c r="C17" s="52"/>
       <c r="D17" s="38"/>
       <c r="E17" s="35"/>
       <c r="F17" s="39" t="s">
-        <v>139</v>
+        <v>183</v>
       </c>
       <c r="G17" s="38" t="s">
-        <v>430</v>
+        <v>474</v>
       </c>
       <c r="H17" s="51"/>
       <c r="I17" s="59"/>
@@ -12408,20 +12512,20 @@
         <v>23</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>431</v>
+        <v>475</v>
       </c>
       <c r="C18" s="55"/>
       <c r="D18" s="38"/>
       <c r="E18" s="35"/>
       <c r="F18" s="39" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="G18" s="38" t="s">
-        <v>432</v>
+        <v>476</v>
       </c>
       <c r="H18" s="56"/>
       <c r="I18" s="39" t="s">
-        <v>433</v>
+        <v>477</v>
       </c>
     </row>
     <row r="19" ht="26.25" customHeight="1" spans="1:9">
@@ -12429,7 +12533,7 @@
         <v>24</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>434</v>
+        <v>478</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
@@ -12444,7 +12548,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="38"/>
@@ -12456,13 +12560,13 @@
     </row>
     <row r="21" ht="28" spans="1:9">
       <c r="A21" s="39" t="s">
-        <v>436</v>
+        <v>480</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>437</v>
+        <v>481</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>438</v>
+        <v>482</v>
       </c>
       <c r="D21" s="38"/>
       <c r="E21" s="35"/>
@@ -12513,475 +12617,475 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.5" spans="1:6">
       <c r="A1" s="8" t="s">
-        <v>439</v>
+        <v>483</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>441</v>
+        <v>485</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>442</v>
+        <v>486</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>443</v>
+        <v>487</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>444</v>
+        <v>488</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:6">
       <c r="A2" s="12" t="s">
-        <v>445</v>
+        <v>489</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>446</v>
+        <v>490</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>447</v>
+        <v>491</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>448</v>
+        <v>492</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>38</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>142</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" ht="15.5" spans="1:6">
       <c r="A3" s="12" t="s">
-        <v>449</v>
+        <v>493</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>450</v>
+        <v>494</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>451</v>
+        <v>495</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>452</v>
+        <v>496</v>
       </c>
     </row>
     <row r="4" ht="15.5" spans="1:6">
       <c r="A4" s="12" t="s">
-        <v>453</v>
+        <v>497</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>454</v>
+        <v>498</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>455</v>
+        <v>499</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="15" t="s">
-        <v>456</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" ht="15.5" spans="1:6">
       <c r="A5" s="12" t="s">
-        <v>457</v>
+        <v>501</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>458</v>
+        <v>502</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>459</v>
+        <v>503</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>460</v>
+        <v>504</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="15" t="s">
-        <v>461</v>
+        <v>505</v>
       </c>
     </row>
     <row r="6" ht="15.5" spans="1:6">
       <c r="A6" s="12" t="s">
-        <v>462</v>
+        <v>506</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>463</v>
+        <v>507</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>464</v>
+        <v>508</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>465</v>
+        <v>509</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="15" t="s">
-        <v>466</v>
+        <v>510</v>
       </c>
     </row>
     <row r="7" ht="15.5" spans="1:6">
       <c r="A7" s="12" t="s">
-        <v>467</v>
+        <v>511</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>468</v>
+        <v>512</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>469</v>
+        <v>513</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>470</v>
+        <v>514</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="15" t="s">
-        <v>471</v>
+        <v>515</v>
       </c>
     </row>
     <row r="8" ht="15.5" spans="1:6">
       <c r="A8" s="12" t="s">
-        <v>472</v>
+        <v>516</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>473</v>
+        <v>517</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>474</v>
+        <v>518</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>475</v>
+        <v>519</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="15" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
     </row>
     <row r="9" ht="15.5" spans="1:6">
       <c r="A9" s="12" t="s">
-        <v>477</v>
+        <v>521</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>479</v>
+        <v>523</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>480</v>
+        <v>524</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="15" t="s">
-        <v>481</v>
+        <v>525</v>
       </c>
     </row>
     <row r="10" ht="15.5" spans="1:6">
       <c r="A10" s="12" t="s">
-        <v>482</v>
+        <v>526</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>483</v>
+        <v>527</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>484</v>
+        <v>528</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="15" t="s">
-        <v>486</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" spans="1:6">
       <c r="A11" s="12" t="s">
-        <v>487</v>
+        <v>531</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="15" t="s">
-        <v>490</v>
+        <v>534</v>
       </c>
     </row>
     <row r="12" ht="15.5" spans="1:6">
       <c r="A12" s="12" t="s">
-        <v>491</v>
+        <v>535</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>492</v>
+        <v>536</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="14" t="s">
-        <v>493</v>
+        <v>537</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="15" t="s">
-        <v>494</v>
+        <v>538</v>
       </c>
     </row>
     <row r="13" ht="15.5" spans="1:6">
       <c r="A13" s="12" t="s">
-        <v>495</v>
+        <v>539</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>496</v>
+        <v>540</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="14" t="s">
-        <v>497</v>
+        <v>541</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="15" t="s">
-        <v>498</v>
+        <v>542</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1" spans="1:6">
       <c r="A14" s="12" t="s">
-        <v>499</v>
+        <v>543</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>500</v>
+        <v>544</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14" t="s">
-        <v>501</v>
+        <v>545</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="15" t="s">
-        <v>502</v>
+        <v>546</v>
       </c>
     </row>
     <row r="15" ht="15.5" spans="1:6">
       <c r="A15" s="12" t="s">
-        <v>503</v>
+        <v>547</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>504</v>
+        <v>548</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>505</v>
+        <v>549</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>506</v>
+        <v>550</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="15" t="s">
-        <v>507</v>
+        <v>551</v>
       </c>
     </row>
     <row r="16" ht="15.5" spans="1:5">
       <c r="A16" s="12" t="s">
-        <v>508</v>
+        <v>552</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>509</v>
+        <v>553</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14" t="s">
-        <v>510</v>
+        <v>554</v>
       </c>
       <c r="E16" s="14"/>
     </row>
     <row r="17" ht="15.5" spans="1:6">
       <c r="A17" s="12" t="s">
-        <v>511</v>
+        <v>555</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>512</v>
+        <v>556</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14" t="s">
-        <v>513</v>
+        <v>557</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="15"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:6">
       <c r="A18" s="12" t="s">
-        <v>514</v>
+        <v>558</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>515</v>
+        <v>559</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14" t="s">
-        <v>516</v>
+        <v>560</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="15"/>
     </row>
     <row r="19" ht="15.5" spans="1:5">
       <c r="A19" s="12" t="s">
-        <v>517</v>
+        <v>561</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>518</v>
+        <v>562</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14" t="s">
-        <v>519</v>
+        <v>563</v>
       </c>
       <c r="E19" s="14"/>
     </row>
     <row r="20" ht="15.5" spans="1:5">
       <c r="A20" s="12" t="s">
-        <v>520</v>
+        <v>564</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>521</v>
+        <v>565</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14" t="s">
-        <v>522</v>
+        <v>566</v>
       </c>
       <c r="E20" s="14"/>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:5">
       <c r="A21" s="12" t="s">
-        <v>523</v>
+        <v>567</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>524</v>
+        <v>568</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14" t="s">
-        <v>525</v>
+        <v>569</v>
       </c>
       <c r="E21" s="14"/>
     </row>
     <row r="22" ht="15.5" spans="1:5">
       <c r="A22" s="12" t="s">
-        <v>526</v>
+        <v>570</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>527</v>
+        <v>571</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14" t="s">
-        <v>528</v>
+        <v>572</v>
       </c>
       <c r="E22" s="14"/>
     </row>
     <row r="23" ht="15.75" customHeight="1" spans="1:6">
       <c r="A23" s="12" t="s">
-        <v>529</v>
+        <v>573</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>530</v>
+        <v>574</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14" t="s">
-        <v>531</v>
+        <v>575</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="15"/>
     </row>
     <row r="24" ht="15.5" spans="1:6">
       <c r="A24" s="12" t="s">
-        <v>532</v>
+        <v>576</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>533</v>
+        <v>577</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14" t="s">
-        <v>534</v>
+        <v>578</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="15"/>
     </row>
     <row r="25" ht="15.5" spans="1:6">
       <c r="A25" s="13" t="s">
-        <v>535</v>
+        <v>579</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>536</v>
+        <v>580</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14" t="s">
-        <v>537</v>
+        <v>581</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="15" t="s">
-        <v>538</v>
+        <v>582</v>
       </c>
     </row>
     <row r="26" ht="15.5" spans="1:6">
       <c r="A26" s="13" t="s">
-        <v>539</v>
+        <v>583</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>540</v>
+        <v>584</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14" t="s">
-        <v>541</v>
+        <v>585</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="15" t="s">
-        <v>542</v>
+        <v>586</v>
       </c>
     </row>
     <row r="27" ht="15.5" spans="1:6">
       <c r="A27" s="13" t="s">
-        <v>543</v>
+        <v>587</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>544</v>
+        <v>588</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14" t="s">
-        <v>545</v>
+        <v>589</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="21" t="s">
-        <v>546</v>
+        <v>590</v>
       </c>
     </row>
     <row r="28" ht="15.5" spans="1:6">
       <c r="A28" s="17" t="s">
-        <v>547</v>
+        <v>591</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>548</v>
+        <v>592</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14" t="s">
-        <v>549</v>
+        <v>593</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="15"/>
     </row>
     <row r="29" ht="15.5" spans="1:6">
       <c r="A29" s="17" t="s">
-        <v>550</v>
+        <v>594</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>551</v>
+        <v>595</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14" t="s">
-        <v>552</v>
+        <v>596</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="15"/>
     </row>
     <row r="30" ht="15.5" spans="1:6">
       <c r="A30" s="17" t="s">
-        <v>553</v>
+        <v>597</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>554</v>
+        <v>598</v>
       </c>
       <c r="C30" s="14"/>
       <c r="E30" s="14"/>
@@ -12989,10 +13093,10 @@
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:6">
       <c r="A31" s="17" t="s">
-        <v>555</v>
+        <v>599</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -13001,10 +13105,10 @@
     </row>
     <row r="32" ht="15.5" spans="1:6">
       <c r="A32" s="17" t="s">
-        <v>557</v>
+        <v>601</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>558</v>
+        <v>602</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -13013,10 +13117,10 @@
     </row>
     <row r="33" ht="15.5" spans="1:6">
       <c r="A33" s="17" t="s">
-        <v>559</v>
+        <v>603</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>560</v>
+        <v>604</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
@@ -13025,10 +13129,10 @@
     </row>
     <row r="34" ht="15.5" spans="1:6">
       <c r="A34" s="17" t="s">
-        <v>561</v>
+        <v>605</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>562</v>
+        <v>606</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
@@ -13037,10 +13141,10 @@
     </row>
     <row r="35" ht="15.5" spans="1:6">
       <c r="A35" s="17" t="s">
-        <v>563</v>
+        <v>607</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>564</v>
+        <v>608</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
@@ -13049,10 +13153,10 @@
     </row>
     <row r="36" ht="15.5" spans="1:6">
       <c r="A36" s="13" t="s">
-        <v>565</v>
+        <v>609</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>566</v>
+        <v>610</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
@@ -13061,10 +13165,10 @@
     </row>
     <row r="37" ht="15.5" spans="1:6">
       <c r="A37" s="13" t="s">
-        <v>567</v>
+        <v>611</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>568</v>
+        <v>612</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
@@ -13073,10 +13177,10 @@
     </row>
     <row r="38" ht="15.5" spans="1:6">
       <c r="A38" s="13" t="s">
-        <v>569</v>
+        <v>613</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>570</v>
+        <v>614</v>
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
@@ -13085,10 +13189,10 @@
     </row>
     <row r="39" ht="15.5" spans="1:6">
       <c r="A39" s="13" t="s">
-        <v>571</v>
+        <v>615</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>572</v>
+        <v>616</v>
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
@@ -13097,10 +13201,10 @@
     </row>
     <row r="40" ht="15.5" spans="1:6">
       <c r="A40" s="13" t="s">
-        <v>573</v>
+        <v>617</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>574</v>
+        <v>618</v>
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
@@ -13109,10 +13213,10 @@
     </row>
     <row r="41" ht="15.5" spans="1:6">
       <c r="A41" s="13" t="s">
-        <v>575</v>
+        <v>619</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>576</v>
+        <v>620</v>
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
@@ -13121,10 +13225,10 @@
     </row>
     <row r="42" ht="15.5" spans="1:6">
       <c r="A42" s="13" t="s">
-        <v>577</v>
+        <v>621</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>578</v>
+        <v>622</v>
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
@@ -13133,10 +13237,10 @@
     </row>
     <row r="43" ht="15.5" spans="1:6">
       <c r="A43" s="12" t="s">
-        <v>579</v>
+        <v>623</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>484</v>
+        <v>528</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
@@ -13145,7 +13249,7 @@
     </row>
     <row r="44" ht="15.5" spans="1:6">
       <c r="A44" s="12" t="s">
-        <v>580</v>
+        <v>624</v>
       </c>
       <c r="B44" s="19"/>
       <c r="C44" s="15"/>
@@ -13155,10 +13259,10 @@
     </row>
     <row r="45" ht="15.5" spans="1:6">
       <c r="A45" s="12" t="s">
-        <v>581</v>
+        <v>625</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>582</v>
+        <v>626</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
@@ -13167,10 +13271,10 @@
     </row>
     <row r="46" ht="15.5" spans="1:6">
       <c r="A46" s="12" t="s">
-        <v>583</v>
+        <v>627</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>584</v>
+        <v>628</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
@@ -13179,10 +13283,10 @@
     </row>
     <row r="47" ht="15.5" spans="1:6">
       <c r="A47" s="12" t="s">
-        <v>585</v>
+        <v>629</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>586</v>
+        <v>630</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
@@ -13191,10 +13295,10 @@
     </row>
     <row r="48" ht="15.5" spans="1:6">
       <c r="A48" s="12" t="s">
-        <v>587</v>
+        <v>631</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>588</v>
+        <v>632</v>
       </c>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
@@ -13203,10 +13307,10 @@
     </row>
     <row r="49" ht="15.5" spans="1:6">
       <c r="A49" s="12" t="s">
-        <v>589</v>
+        <v>633</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>590</v>
+        <v>634</v>
       </c>
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
@@ -13215,7 +13319,7 @@
     </row>
     <row r="50" ht="15.5" spans="1:6">
       <c r="A50" s="12" t="s">
-        <v>591</v>
+        <v>635</v>
       </c>
       <c r="B50" s="19"/>
       <c r="C50" s="18"/>
@@ -13225,7 +13329,7 @@
     </row>
     <row r="51" ht="15.5" spans="1:6">
       <c r="A51" s="12" t="s">
-        <v>592</v>
+        <v>636</v>
       </c>
       <c r="B51" s="19"/>
       <c r="C51" s="18"/>
@@ -13235,7 +13339,7 @@
     </row>
     <row r="52" ht="15.5" spans="1:6">
       <c r="A52" s="12" t="s">
-        <v>593</v>
+        <v>637</v>
       </c>
       <c r="B52" s="19"/>
       <c r="C52" s="18"/>
@@ -13245,7 +13349,7 @@
     </row>
     <row r="53" ht="15.5" spans="1:6">
       <c r="A53" s="12" t="s">
-        <v>594</v>
+        <v>638</v>
       </c>
       <c r="B53" s="19"/>
       <c r="C53" s="18"/>
@@ -13255,7 +13359,7 @@
     </row>
     <row r="54" ht="15.5" spans="1:6">
       <c r="A54" s="12" t="s">
-        <v>595</v>
+        <v>639</v>
       </c>
       <c r="B54" s="19"/>
       <c r="C54" s="18"/>
@@ -13265,7 +13369,7 @@
     </row>
     <row r="55" ht="15.5" spans="1:6">
       <c r="A55" s="17" t="s">
-        <v>596</v>
+        <v>640</v>
       </c>
       <c r="B55" s="19"/>
       <c r="C55" s="18"/>
@@ -13275,7 +13379,7 @@
     </row>
     <row r="56" ht="15.5" spans="1:6">
       <c r="A56" s="13" t="s">
-        <v>597</v>
+        <v>641</v>
       </c>
       <c r="B56" s="19"/>
       <c r="C56" s="18"/>
@@ -13295,7 +13399,7 @@
     </row>
     <row r="58" ht="15.5" spans="1:6">
       <c r="A58" s="12" t="s">
-        <v>598</v>
+        <v>642</v>
       </c>
       <c r="B58" s="19"/>
       <c r="C58" s="18"/>
@@ -13305,7 +13409,7 @@
     </row>
     <row r="59" ht="15.5" spans="1:6">
       <c r="A59" s="17" t="s">
-        <v>599</v>
+        <v>643</v>
       </c>
       <c r="B59" s="19"/>
       <c r="C59" s="18"/>
@@ -13315,7 +13419,7 @@
     </row>
     <row r="60" ht="15.5" spans="1:6">
       <c r="A60" s="22" t="s">
-        <v>600</v>
+        <v>644</v>
       </c>
       <c r="B60" s="19"/>
       <c r="C60" s="18"/>
@@ -13325,7 +13429,7 @@
     </row>
     <row r="61" ht="15.5" spans="1:6">
       <c r="A61" s="12" t="s">
-        <v>601</v>
+        <v>645</v>
       </c>
       <c r="B61" s="19"/>
       <c r="C61" s="18"/>
@@ -13335,7 +13439,7 @@
     </row>
     <row r="62" ht="15.5" spans="1:6">
       <c r="A62" s="17" t="s">
-        <v>602</v>
+        <v>646</v>
       </c>
       <c r="B62" s="19"/>
       <c r="C62" s="18"/>
@@ -13345,7 +13449,7 @@
     </row>
     <row r="63" ht="15.5" spans="1:6">
       <c r="A63" s="23" t="s">
-        <v>603</v>
+        <v>647</v>
       </c>
       <c r="B63" s="19"/>
       <c r="C63" s="18"/>
@@ -13355,7 +13459,7 @@
     </row>
     <row r="64" ht="15.5" spans="1:6">
       <c r="A64" s="12" t="s">
-        <v>604</v>
+        <v>648</v>
       </c>
       <c r="B64" s="19"/>
       <c r="C64" s="18"/>
@@ -13365,7 +13469,7 @@
     </row>
     <row r="65" ht="15.5" spans="1:6">
       <c r="A65" s="12" t="s">
-        <v>605</v>
+        <v>649</v>
       </c>
       <c r="B65" s="19"/>
       <c r="C65" s="18"/>
@@ -13375,7 +13479,7 @@
     </row>
     <row r="66" ht="15.5" spans="1:6">
       <c r="A66" s="17" t="s">
-        <v>606</v>
+        <v>650</v>
       </c>
       <c r="B66" s="19"/>
       <c r="C66" s="18"/>
@@ -13385,7 +13489,7 @@
     </row>
     <row r="67" ht="15.5" spans="1:6">
       <c r="A67" s="17" t="s">
-        <v>607</v>
+        <v>651</v>
       </c>
       <c r="B67" s="19"/>
       <c r="C67" s="18"/>
@@ -13395,7 +13499,7 @@
     </row>
     <row r="68" ht="15.5" spans="1:6">
       <c r="A68" s="12" t="s">
-        <v>608</v>
+        <v>652</v>
       </c>
       <c r="B68" s="19"/>
       <c r="C68" s="18"/>
@@ -13405,7 +13509,7 @@
     </row>
     <row r="69" ht="15.5" spans="1:6">
       <c r="A69" s="12" t="s">
-        <v>609</v>
+        <v>653</v>
       </c>
       <c r="B69" s="19"/>
       <c r="C69" s="18"/>
@@ -13415,7 +13519,7 @@
     </row>
     <row r="70" ht="15.5" spans="1:6">
       <c r="A70" s="12" t="s">
-        <v>610</v>
+        <v>654</v>
       </c>
       <c r="B70" s="19"/>
       <c r="C70" s="18"/>
@@ -13425,7 +13529,7 @@
     </row>
     <row r="71" s="2" customFormat="1" ht="15.5" spans="1:6">
       <c r="A71" s="24" t="s">
-        <v>611</v>
+        <v>655</v>
       </c>
       <c r="B71" s="19"/>
       <c r="C71" s="18"/>
@@ -13435,7 +13539,7 @@
     </row>
     <row r="72" s="2" customFormat="1" ht="15.5" spans="1:6">
       <c r="A72" s="24" t="s">
-        <v>612</v>
+        <v>656</v>
       </c>
       <c r="B72" s="19"/>
       <c r="C72" s="18"/>
@@ -13445,7 +13549,7 @@
     </row>
     <row r="73" s="2" customFormat="1" ht="15.5" spans="1:6">
       <c r="A73" s="24" t="s">
-        <v>613</v>
+        <v>657</v>
       </c>
       <c r="B73" s="19"/>
       <c r="C73" s="18"/>
@@ -13455,7 +13559,7 @@
     </row>
     <row r="74" s="2" customFormat="1" ht="15.5" spans="1:6">
       <c r="A74" s="17" t="s">
-        <v>614</v>
+        <v>658</v>
       </c>
       <c r="B74" s="19"/>
       <c r="C74" s="18"/>
@@ -13465,7 +13569,7 @@
     </row>
     <row r="75" ht="15.5" spans="1:6">
       <c r="A75" s="17" t="s">
-        <v>615</v>
+        <v>659</v>
       </c>
       <c r="B75" s="19"/>
       <c r="C75" s="18"/>
@@ -13475,7 +13579,7 @@
     </row>
     <row r="76" ht="15.5" spans="1:6">
       <c r="A76" s="17" t="s">
-        <v>616</v>
+        <v>660</v>
       </c>
       <c r="B76" s="19"/>
       <c r="C76" s="18"/>
@@ -13485,7 +13589,7 @@
     </row>
     <row r="77" ht="15.5" spans="1:6">
       <c r="A77" s="17" t="s">
-        <v>617</v>
+        <v>661</v>
       </c>
       <c r="B77" s="19"/>
       <c r="C77" s="18"/>
@@ -13495,7 +13599,7 @@
     </row>
     <row r="78" ht="15.5" spans="1:6">
       <c r="A78" s="17" t="s">
-        <v>618</v>
+        <v>662</v>
       </c>
       <c r="B78" s="19"/>
       <c r="C78" s="18"/>
@@ -13505,7 +13609,7 @@
     </row>
     <row r="79" ht="15.5" spans="1:6">
       <c r="A79" s="17" t="s">
-        <v>619</v>
+        <v>663</v>
       </c>
       <c r="B79" s="19"/>
       <c r="C79" s="18"/>
@@ -13515,7 +13619,7 @@
     </row>
     <row r="80" ht="15.5" spans="1:6">
       <c r="A80" s="17" t="s">
-        <v>620</v>
+        <v>664</v>
       </c>
       <c r="B80" s="19"/>
       <c r="C80" s="18"/>
@@ -13549,85 +13653,85 @@
     </row>
     <row r="84" ht="15.5" spans="1:2">
       <c r="A84" s="19" t="s">
-        <v>621</v>
+        <v>665</v>
       </c>
       <c r="B84" s="19"/>
     </row>
     <row r="85" ht="15.5" spans="1:1">
       <c r="A85" s="19" t="s">
-        <v>622</v>
+        <v>666</v>
       </c>
     </row>
     <row r="86" ht="15.5" spans="1:1">
       <c r="A86" s="26" t="s">
-        <v>623</v>
+        <v>667</v>
       </c>
     </row>
     <row r="87" ht="31" spans="1:1">
       <c r="A87" s="26" t="s">
-        <v>624</v>
+        <v>668</v>
       </c>
     </row>
     <row r="88" ht="15.5" spans="1:1">
       <c r="A88" s="26" t="s">
-        <v>625</v>
+        <v>669</v>
       </c>
     </row>
     <row r="89" ht="31" spans="1:1">
       <c r="A89" s="26" t="s">
-        <v>626</v>
+        <v>670</v>
       </c>
     </row>
     <row r="90" ht="15.5" spans="1:1">
       <c r="A90" s="19" t="s">
-        <v>627</v>
+        <v>671</v>
       </c>
     </row>
     <row r="91" ht="15.5" spans="1:1">
       <c r="A91" s="19" t="s">
-        <v>628</v>
+        <v>672</v>
       </c>
     </row>
     <row r="92" ht="15.5" spans="1:1">
       <c r="A92" s="19" t="s">
-        <v>629</v>
+        <v>673</v>
       </c>
     </row>
     <row r="93" ht="15.5" spans="1:1">
       <c r="A93" s="19" t="s">
-        <v>630</v>
+        <v>674</v>
       </c>
     </row>
     <row r="95" ht="31" spans="1:1">
       <c r="A95" s="26" t="s">
-        <v>631</v>
+        <v>675</v>
       </c>
     </row>
     <row r="96" ht="15.5" spans="1:1">
       <c r="A96" s="19" t="s">
-        <v>632</v>
+        <v>676</v>
       </c>
     </row>
     <row r="97" ht="15.5" spans="1:1">
       <c r="A97" s="19" t="s">
-        <v>633</v>
+        <v>677</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:A35">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77:A80">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:A96">
-    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
